--- a/Resources/entity.xlsx
+++ b/Resources/entity.xlsx
@@ -1534,264 +1534,6 @@
     <t>Torch.Right</t>
   </si>
   <si>
-    <t>item/apple.png</t>
-  </si>
-  <si>
-    <t>item/apple_golden.png</t>
-  </si>
-  <si>
-    <t>item/bed.png</t>
-  </si>
-  <si>
-    <t>item/beetroot.png</t>
-  </si>
-  <si>
-    <t>item/beetroot_soup.png</t>
-  </si>
-  <si>
-    <t>item/blaze_powder.png</t>
-  </si>
-  <si>
-    <t>item/blaze_rod.png</t>
-  </si>
-  <si>
-    <t>item/bone.png</t>
-  </si>
-  <si>
-    <t>item/bowl.png</t>
-  </si>
-  <si>
-    <t>item/bread.png</t>
-  </si>
-  <si>
-    <t>item/brick.png</t>
-  </si>
-  <si>
-    <t>item/bucket_empty.png</t>
-  </si>
-  <si>
-    <t>item/bucket_milk.png</t>
-  </si>
-  <si>
-    <t>item/bucket_water.png</t>
-  </si>
-  <si>
-    <t>item/cake.png</t>
-  </si>
-  <si>
-    <t>item/carrot.png</t>
-  </si>
-  <si>
-    <t>item/carrot_golden.png</t>
-  </si>
-  <si>
-    <t>item/cauldron.png</t>
-  </si>
-  <si>
-    <t>item/chorus_fruit.png</t>
-  </si>
-  <si>
-    <t>item/clay_ball.png</t>
-  </si>
-  <si>
-    <t>item/coal.png</t>
-  </si>
-  <si>
-    <t>item/cookie.png</t>
-  </si>
-  <si>
-    <t>item/diamond.png</t>
-  </si>
-  <si>
-    <t>item/diamond_pickaxe.png</t>
-  </si>
-  <si>
-    <t>item/diamond_sword.png</t>
-  </si>
-  <si>
-    <t>item/door_acacia.png</t>
-  </si>
-  <si>
-    <t>item/door_birch.png</t>
-  </si>
-  <si>
-    <t>item/door_dark_oak.png</t>
-  </si>
-  <si>
-    <t>item/door_iron.png</t>
-  </si>
-  <si>
-    <t>item/door_jungle.png</t>
-  </si>
-  <si>
-    <t>item/door_spruce.png</t>
-  </si>
-  <si>
-    <t>item/door_wood.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_black.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_blue.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_brown.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_cyan.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_gray.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_green.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_light_blue.</t>
-  </si>
-  <si>
-    <t>item/dye_powder_lime.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_magenta.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_orange.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_pink.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_purple.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_red.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_silver.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_white.png</t>
-  </si>
-  <si>
-    <t>item/dye_powder_yellow.png</t>
-  </si>
-  <si>
-    <t>item/elytra.png</t>
-  </si>
-  <si>
-    <t>item/emerald.png</t>
-  </si>
-  <si>
-    <t>item/ender_pearl.png</t>
-  </si>
-  <si>
-    <t>item/fireball.png</t>
-  </si>
-  <si>
-    <t>item/flint.png</t>
-  </si>
-  <si>
-    <t>item/flint_and_steel.png</t>
-  </si>
-  <si>
-    <t>item/glowstone_dust.png</t>
-  </si>
-  <si>
-    <t>item/gold_ingot.png</t>
-  </si>
-  <si>
-    <t>item/gold_nugget.png</t>
-  </si>
-  <si>
-    <t>item/gold_pickaxe.png</t>
-  </si>
-  <si>
-    <t>item/gold_sword.png</t>
-  </si>
-  <si>
-    <t>item/gunpowder.png</t>
-  </si>
-  <si>
-    <t>item/iron_ingot.png</t>
-  </si>
-  <si>
-    <t>item/iron_pickaxe.png</t>
-  </si>
-  <si>
-    <t>item/iron_sword.png</t>
-  </si>
-  <si>
-    <t>item/magma_cream.png</t>
-  </si>
-  <si>
-    <t>item/map_filled.png</t>
-  </si>
-  <si>
-    <t>item/melon.png</t>
-  </si>
-  <si>
-    <t>item/mushroom_stew.png</t>
-  </si>
-  <si>
-    <t>item/netherbrick.png</t>
-  </si>
-  <si>
-    <t>item/nether_wart.png</t>
-  </si>
-  <si>
-    <t>item/paper.png</t>
-  </si>
-  <si>
-    <t>item/potato.png</t>
-  </si>
-  <si>
-    <t>item/potato_baked.png</t>
-  </si>
-  <si>
-    <t>item/pumpkin_pie.png</t>
-  </si>
-  <si>
-    <t>item/quartz.png</t>
-  </si>
-  <si>
-    <t>item/redstone_dust.png</t>
-  </si>
-  <si>
-    <t>item/reeds.png</t>
-  </si>
-  <si>
-    <t>item/ruby.png</t>
-  </si>
-  <si>
-    <t>item/slimeball.png</t>
-  </si>
-  <si>
-    <t>item/snowball.png</t>
-  </si>
-  <si>
-    <t>item/stick.png</t>
-  </si>
-  <si>
-    <t>item/stone_pickaxe.png</t>
-  </si>
-  <si>
-    <t>item/stone_sword.png</t>
-  </si>
-  <si>
-    <t>item/sugar.png</t>
-  </si>
-  <si>
-    <t>item/wheat.png</t>
-  </si>
-  <si>
-    <t>item/wood_pickaxe.png</t>
-  </si>
-  <si>
-    <t>item/wood_sword.png</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -3449,6 +3191,264 @@
   </si>
   <si>
     <t>RequireEdit</t>
+  </si>
+  <si>
+    <t>items/bed.png</t>
+  </si>
+  <si>
+    <t>items/beetroot.png</t>
+  </si>
+  <si>
+    <t>items/bucket_water.png</t>
+  </si>
+  <si>
+    <t>items/cake.png</t>
+  </si>
+  <si>
+    <t>items/carrot.png</t>
+  </si>
+  <si>
+    <t>items/cauldron.png</t>
+  </si>
+  <si>
+    <t>items/chorus_fruit.png</t>
+  </si>
+  <si>
+    <t>items/door_acacia.png</t>
+  </si>
+  <si>
+    <t>items/door_birch.png</t>
+  </si>
+  <si>
+    <t>items/door_dark_oak.png</t>
+  </si>
+  <si>
+    <t>items/door_iron.png</t>
+  </si>
+  <si>
+    <t>items/door_jungle.png</t>
+  </si>
+  <si>
+    <t>items/door_spruce.png</t>
+  </si>
+  <si>
+    <t>items/door_wood.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_brown.png</t>
+  </si>
+  <si>
+    <t>items/flint_and_steel.png</t>
+  </si>
+  <si>
+    <t>items/melon.png</t>
+  </si>
+  <si>
+    <t>items/nether_wart.png</t>
+  </si>
+  <si>
+    <t>items/potato.png</t>
+  </si>
+  <si>
+    <t>items/reeds.png</t>
+  </si>
+  <si>
+    <t>items/wheat.png</t>
+  </si>
+  <si>
+    <t>items/apple.png</t>
+  </si>
+  <si>
+    <t>items/apple_golden.png</t>
+  </si>
+  <si>
+    <t>items/beetroot_soup.png</t>
+  </si>
+  <si>
+    <t>items/blaze_powder.png</t>
+  </si>
+  <si>
+    <t>items/bone.png</t>
+  </si>
+  <si>
+    <t>items/bowl.png</t>
+  </si>
+  <si>
+    <t>items/bread.png</t>
+  </si>
+  <si>
+    <t>items/bucket_empty.png</t>
+  </si>
+  <si>
+    <t>items/bucket_milk.png</t>
+  </si>
+  <si>
+    <t>items/carrot_golden.png</t>
+  </si>
+  <si>
+    <t>items/clay_ball.png</t>
+  </si>
+  <si>
+    <t>items/coal.png</t>
+  </si>
+  <si>
+    <t>items/cookie.png</t>
+  </si>
+  <si>
+    <t>items/diamond.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_black.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_blue.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_cyan.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_green.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_gray.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_light_blue.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_lime.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_magenta.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_orange.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_pink.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_purple.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_red.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_silver.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_white.png</t>
+  </si>
+  <si>
+    <t>items/dye_powder_yellow.png</t>
+  </si>
+  <si>
+    <t>items/emerald.png</t>
+  </si>
+  <si>
+    <t>items/flint.png</t>
+  </si>
+  <si>
+    <t>items/glowstone_dust.png</t>
+  </si>
+  <si>
+    <t>items/gold_ingot.png</t>
+  </si>
+  <si>
+    <t>items/gold_nugget.png</t>
+  </si>
+  <si>
+    <t>items/gunpowder.png</t>
+  </si>
+  <si>
+    <t>items/iron_ingot.png</t>
+  </si>
+  <si>
+    <t>items/magma_cream.png</t>
+  </si>
+  <si>
+    <t>items/map_filled.png</t>
+  </si>
+  <si>
+    <t>items/mushroom_stew.png</t>
+  </si>
+  <si>
+    <t>items/paper.png</t>
+  </si>
+  <si>
+    <t>items/potato_baked.png</t>
+  </si>
+  <si>
+    <t>items/pumpkin_pie.png</t>
+  </si>
+  <si>
+    <t>items/quartz.png</t>
+  </si>
+  <si>
+    <t>items/redstone_dust.png</t>
+  </si>
+  <si>
+    <t>items/ruby.png</t>
+  </si>
+  <si>
+    <t>items/stick.png</t>
+  </si>
+  <si>
+    <t>items/sugar.png</t>
+  </si>
+  <si>
+    <t>items/blaze_rod.png</t>
+  </si>
+  <si>
+    <t>items/brick.png</t>
+  </si>
+  <si>
+    <t>items/diamond_pickaxe.png</t>
+  </si>
+  <si>
+    <t>items/diamond_sword.png</t>
+  </si>
+  <si>
+    <t>items/elytra.png</t>
+  </si>
+  <si>
+    <t>items/ender_pearl.png</t>
+  </si>
+  <si>
+    <t>items/fireball.png</t>
+  </si>
+  <si>
+    <t>items/gold_pickaxe.png</t>
+  </si>
+  <si>
+    <t>items/gold_sword.png</t>
+  </si>
+  <si>
+    <t>items/iron_pickaxe.png</t>
+  </si>
+  <si>
+    <t>items/iron_sword.png</t>
+  </si>
+  <si>
+    <t>items/netherbrick.png</t>
+  </si>
+  <si>
+    <t>items/slimeball.png</t>
+  </si>
+  <si>
+    <t>items/snowball.png</t>
+  </si>
+  <si>
+    <t>items/stone_pickaxe.png</t>
+  </si>
+  <si>
+    <t>items/stone_sword.png</t>
+  </si>
+  <si>
+    <t>items/wood_pickaxe.png</t>
+  </si>
+  <si>
+    <t>items/wood_sword.png</t>
   </si>
 </sst>
 </file>
@@ -16740,8 +16740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16836,18 +16836,18 @@
         <v>200</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>1142</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>674</v>
+        <v>588</v>
       </c>
       <c r="B2" t="s">
-        <v>734</v>
+        <v>648</v>
       </c>
       <c r="C2" t="s">
-        <v>506</v>
+        <v>1057</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -16910,7 +16910,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>674</v>
+        <v>588</v>
       </c>
       <c r="Y2" t="b">
         <v>1</v>
@@ -16921,10 +16921,10 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>754</v>
+        <v>668</v>
       </c>
       <c r="C3" t="s">
-        <v>754</v>
+        <v>668</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -16995,13 +16995,13 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>505</v>
       </c>
       <c r="B4" t="s">
-        <v>752</v>
+        <v>666</v>
       </c>
       <c r="C4" t="s">
-        <v>507</v>
+        <v>1058</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -17064,7 +17064,7 @@
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>679</v>
+        <v>593</v>
       </c>
       <c r="Y4" t="b">
         <v>1</v>
@@ -17072,13 +17072,13 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1003</v>
+        <v>917</v>
       </c>
       <c r="B5" t="s">
-        <v>755</v>
+        <v>669</v>
       </c>
       <c r="C5" t="s">
-        <v>755</v>
+        <v>669</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -17141,7 +17141,7 @@
         <v>1</v>
       </c>
       <c r="X5" t="s">
-        <v>948</v>
+        <v>862</v>
       </c>
       <c r="Y5" t="b">
         <v>1</v>
@@ -17152,10 +17152,10 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>756</v>
+        <v>670</v>
       </c>
       <c r="C6" t="s">
-        <v>756</v>
+        <v>670</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -17229,10 +17229,10 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>757</v>
+        <v>671</v>
       </c>
       <c r="C7" t="s">
-        <v>757</v>
+        <v>671</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -17295,7 +17295,7 @@
         <v>1</v>
       </c>
       <c r="X7" t="s">
-        <v>1010</v>
+        <v>924</v>
       </c>
       <c r="Y7" t="b">
         <v>0</v>
@@ -17303,13 +17303,13 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>600</v>
+        <v>514</v>
       </c>
       <c r="B8" t="s">
-        <v>735</v>
+        <v>649</v>
       </c>
       <c r="C8" t="s">
-        <v>517</v>
+        <v>1059</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -17372,7 +17372,7 @@
         <v>1</v>
       </c>
       <c r="X8" t="s">
-        <v>677</v>
+        <v>591</v>
       </c>
       <c r="Y8" t="b">
         <v>1</v>
@@ -17383,10 +17383,10 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>758</v>
+        <v>672</v>
       </c>
       <c r="C9" t="s">
-        <v>758</v>
+        <v>672</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -17457,13 +17457,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>601</v>
+        <v>515</v>
       </c>
       <c r="B10" t="s">
-        <v>736</v>
+        <v>650</v>
       </c>
       <c r="C10" t="s">
-        <v>518</v>
+        <v>1060</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -17526,7 +17526,7 @@
         <v>1</v>
       </c>
       <c r="X10" t="s">
-        <v>601</v>
+        <v>515</v>
       </c>
       <c r="Y10" t="b">
         <v>0</v>
@@ -17534,13 +17534,13 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>602</v>
+        <v>516</v>
       </c>
       <c r="B11" t="s">
-        <v>737</v>
+        <v>651</v>
       </c>
       <c r="C11" t="s">
-        <v>519</v>
+        <v>1061</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -17603,7 +17603,7 @@
         <v>1</v>
       </c>
       <c r="X11" t="s">
-        <v>602</v>
+        <v>516</v>
       </c>
       <c r="Y11" t="b">
         <v>1</v>
@@ -17611,13 +17611,13 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>604</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
-        <v>738</v>
+        <v>652</v>
       </c>
       <c r="C12" t="s">
-        <v>521</v>
+        <v>1062</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -17680,7 +17680,7 @@
         <v>1</v>
       </c>
       <c r="X12" t="s">
-        <v>604</v>
+        <v>518</v>
       </c>
       <c r="Y12" t="b">
         <v>0</v>
@@ -17688,13 +17688,13 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>605</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s">
-        <v>739</v>
+        <v>653</v>
       </c>
       <c r="C13" t="s">
-        <v>522</v>
+        <v>1063</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -17757,7 +17757,7 @@
         <v>1</v>
       </c>
       <c r="X13" t="s">
-        <v>683</v>
+        <v>597</v>
       </c>
       <c r="Y13" t="b">
         <v>1</v>
@@ -17768,10 +17768,10 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>759</v>
+        <v>673</v>
       </c>
       <c r="C14" t="s">
-        <v>759</v>
+        <v>673</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -17842,13 +17842,13 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1111</v>
+        <v>1025</v>
       </c>
       <c r="B15" t="s">
-        <v>760</v>
+        <v>674</v>
       </c>
       <c r="C15" t="s">
-        <v>760</v>
+        <v>674</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -17911,7 +17911,7 @@
         <v>1</v>
       </c>
       <c r="X15" t="s">
-        <v>949</v>
+        <v>863</v>
       </c>
       <c r="Y15" t="b">
         <v>0</v>
@@ -17922,10 +17922,10 @@
         <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>761</v>
+        <v>675</v>
       </c>
       <c r="C16" t="s">
-        <v>761</v>
+        <v>675</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -17996,13 +17996,13 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1112</v>
+        <v>1026</v>
       </c>
       <c r="B17" t="s">
-        <v>762</v>
+        <v>676</v>
       </c>
       <c r="C17" t="s">
-        <v>762</v>
+        <v>676</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -18065,7 +18065,7 @@
         <v>1</v>
       </c>
       <c r="X17" t="s">
-        <v>1000</v>
+        <v>914</v>
       </c>
       <c r="Y17" t="b">
         <v>0</v>
@@ -18076,10 +18076,10 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>763</v>
+        <v>677</v>
       </c>
       <c r="C18" t="s">
-        <v>763</v>
+        <v>677</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -18153,10 +18153,10 @@
         <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>764</v>
+        <v>678</v>
       </c>
       <c r="C19" t="s">
-        <v>764</v>
+        <v>678</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -18227,13 +18227,13 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1001</v>
+        <v>915</v>
       </c>
       <c r="B20" t="s">
-        <v>765</v>
+        <v>679</v>
       </c>
       <c r="C20" t="s">
-        <v>765</v>
+        <v>679</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -18296,7 +18296,7 @@
         <v>1</v>
       </c>
       <c r="X20" t="s">
-        <v>999</v>
+        <v>913</v>
       </c>
       <c r="Y20" t="b">
         <v>0</v>
@@ -18304,13 +18304,13 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1002</v>
+        <v>916</v>
       </c>
       <c r="B21" t="s">
-        <v>766</v>
+        <v>680</v>
       </c>
       <c r="C21" t="s">
-        <v>766</v>
+        <v>680</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -18373,7 +18373,7 @@
         <v>1</v>
       </c>
       <c r="X21" t="s">
-        <v>1004</v>
+        <v>918</v>
       </c>
       <c r="Y21" t="b">
         <v>1</v>
@@ -18384,10 +18384,10 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>767</v>
+        <v>681</v>
       </c>
       <c r="C22" t="s">
-        <v>767</v>
+        <v>681</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -18461,10 +18461,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>768</v>
+        <v>682</v>
       </c>
       <c r="C23" t="s">
-        <v>768</v>
+        <v>682</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
@@ -18538,10 +18538,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>769</v>
+        <v>683</v>
       </c>
       <c r="C24" t="s">
-        <v>769</v>
+        <v>683</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -18615,10 +18615,10 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>770</v>
+        <v>684</v>
       </c>
       <c r="C25" t="s">
-        <v>770</v>
+        <v>684</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -18689,13 +18689,13 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1008</v>
+        <v>922</v>
       </c>
       <c r="B26" t="s">
-        <v>771</v>
+        <v>685</v>
       </c>
       <c r="C26" t="s">
-        <v>771</v>
+        <v>685</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -18758,7 +18758,7 @@
         <v>1</v>
       </c>
       <c r="X26" t="s">
-        <v>1009</v>
+        <v>923</v>
       </c>
       <c r="Y26" t="b">
         <v>0</v>
@@ -18766,13 +18766,13 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>612</v>
+        <v>526</v>
       </c>
       <c r="B27" t="s">
-        <v>740</v>
+        <v>654</v>
       </c>
       <c r="C27" t="s">
-        <v>529</v>
+        <v>1064</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -18835,7 +18835,7 @@
         <v>1</v>
       </c>
       <c r="X27" t="s">
-        <v>687</v>
+        <v>601</v>
       </c>
       <c r="Y27" t="b">
         <v>1</v>
@@ -18843,13 +18843,13 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>613</v>
+        <v>527</v>
       </c>
       <c r="B28" t="s">
-        <v>741</v>
+        <v>655</v>
       </c>
       <c r="C28" t="s">
-        <v>530</v>
+        <v>1065</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -18912,7 +18912,7 @@
         <v>1</v>
       </c>
       <c r="X28" t="s">
-        <v>688</v>
+        <v>602</v>
       </c>
       <c r="Y28" t="b">
         <v>1</v>
@@ -18920,13 +18920,13 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>614</v>
+        <v>528</v>
       </c>
       <c r="B29" t="s">
-        <v>742</v>
+        <v>656</v>
       </c>
       <c r="C29" t="s">
-        <v>531</v>
+        <v>1066</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
@@ -18989,7 +18989,7 @@
         <v>1</v>
       </c>
       <c r="X29" t="s">
-        <v>689</v>
+        <v>603</v>
       </c>
       <c r="Y29" t="b">
         <v>1</v>
@@ -18997,13 +18997,13 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>615</v>
+        <v>529</v>
       </c>
       <c r="B30" t="s">
-        <v>743</v>
+        <v>657</v>
       </c>
       <c r="C30" t="s">
-        <v>532</v>
+        <v>1067</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -19066,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="X30" t="s">
-        <v>690</v>
+        <v>604</v>
       </c>
       <c r="Y30" t="b">
         <v>1</v>
@@ -19074,13 +19074,13 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>616</v>
+        <v>530</v>
       </c>
       <c r="B31" t="s">
-        <v>744</v>
+        <v>658</v>
       </c>
       <c r="C31" t="s">
-        <v>533</v>
+        <v>1068</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
@@ -19143,7 +19143,7 @@
         <v>1</v>
       </c>
       <c r="X31" t="s">
-        <v>691</v>
+        <v>605</v>
       </c>
       <c r="Y31" t="b">
         <v>1</v>
@@ -19151,13 +19151,13 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>617</v>
+        <v>531</v>
       </c>
       <c r="B32" t="s">
-        <v>745</v>
+        <v>659</v>
       </c>
       <c r="C32" t="s">
-        <v>534</v>
+        <v>1069</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
@@ -19220,7 +19220,7 @@
         <v>1</v>
       </c>
       <c r="X32" t="s">
-        <v>692</v>
+        <v>606</v>
       </c>
       <c r="Y32" t="b">
         <v>1</v>
@@ -19228,13 +19228,13 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>618</v>
+        <v>532</v>
       </c>
       <c r="B33" t="s">
-        <v>746</v>
+        <v>660</v>
       </c>
       <c r="C33" t="s">
-        <v>535</v>
+        <v>1070</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
@@ -19297,7 +19297,7 @@
         <v>1</v>
       </c>
       <c r="X33" t="s">
-        <v>693</v>
+        <v>607</v>
       </c>
       <c r="Y33" t="b">
         <v>1</v>
@@ -19305,13 +19305,13 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1113</v>
+        <v>1027</v>
       </c>
       <c r="B34" t="s">
-        <v>772</v>
+        <v>686</v>
       </c>
       <c r="C34" t="s">
-        <v>772</v>
+        <v>686</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -19374,7 +19374,7 @@
         <v>1</v>
       </c>
       <c r="X34" t="s">
-        <v>1011</v>
+        <v>925</v>
       </c>
       <c r="Y34" t="b">
         <v>1</v>
@@ -19382,13 +19382,13 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1114</v>
+        <v>1028</v>
       </c>
       <c r="B35" t="s">
-        <v>773</v>
+        <v>687</v>
       </c>
       <c r="C35" t="s">
-        <v>773</v>
+        <v>687</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -19451,7 +19451,7 @@
         <v>1</v>
       </c>
       <c r="X35" t="s">
-        <v>1012</v>
+        <v>926</v>
       </c>
       <c r="Y35" t="b">
         <v>1</v>
@@ -19459,13 +19459,13 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1115</v>
+        <v>1029</v>
       </c>
       <c r="B36" t="s">
-        <v>774</v>
+        <v>688</v>
       </c>
       <c r="C36" t="s">
-        <v>774</v>
+        <v>688</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
@@ -19528,7 +19528,7 @@
         <v>1</v>
       </c>
       <c r="X36" t="s">
-        <v>1015</v>
+        <v>929</v>
       </c>
       <c r="Y36" t="b">
         <v>1</v>
@@ -19536,13 +19536,13 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1116</v>
+        <v>1030</v>
       </c>
       <c r="B37" t="s">
-        <v>775</v>
+        <v>689</v>
       </c>
       <c r="C37" t="s">
-        <v>775</v>
+        <v>689</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
@@ -19605,7 +19605,7 @@
         <v>1</v>
       </c>
       <c r="X37" t="s">
-        <v>1014</v>
+        <v>928</v>
       </c>
       <c r="Y37" t="b">
         <v>1</v>
@@ -19613,13 +19613,13 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1117</v>
+        <v>1031</v>
       </c>
       <c r="B38" t="s">
-        <v>776</v>
+        <v>690</v>
       </c>
       <c r="C38" t="s">
-        <v>776</v>
+        <v>690</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
@@ -19682,7 +19682,7 @@
         <v>1</v>
       </c>
       <c r="X38" t="s">
-        <v>1016</v>
+        <v>930</v>
       </c>
       <c r="Y38" t="b">
         <v>1</v>
@@ -19690,13 +19690,13 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1118</v>
+        <v>1032</v>
       </c>
       <c r="B39" t="s">
-        <v>777</v>
+        <v>691</v>
       </c>
       <c r="C39" t="s">
-        <v>777</v>
+        <v>691</v>
       </c>
       <c r="D39" t="s">
         <v>20</v>
@@ -19759,7 +19759,7 @@
         <v>1</v>
       </c>
       <c r="X39" t="s">
-        <v>1017</v>
+        <v>931</v>
       </c>
       <c r="Y39" t="b">
         <v>1</v>
@@ -19767,13 +19767,13 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>621</v>
+        <v>535</v>
       </c>
       <c r="B40" t="s">
-        <v>753</v>
+        <v>667</v>
       </c>
       <c r="C40" t="s">
-        <v>538</v>
+        <v>1071</v>
       </c>
       <c r="D40" t="s">
         <v>20</v>
@@ -19836,7 +19836,7 @@
         <v>1</v>
       </c>
       <c r="X40" t="s">
-        <v>695</v>
+        <v>609</v>
       </c>
       <c r="Y40" t="b">
         <v>1</v>
@@ -19847,10 +19847,10 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>778</v>
+        <v>692</v>
       </c>
       <c r="C41" t="s">
-        <v>778</v>
+        <v>692</v>
       </c>
       <c r="D41" t="s">
         <v>20</v>
@@ -19924,10 +19924,10 @@
         <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>779</v>
+        <v>693</v>
       </c>
       <c r="C42" t="s">
-        <v>779</v>
+        <v>693</v>
       </c>
       <c r="D42" t="s">
         <v>20</v>
@@ -19998,13 +19998,13 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1119</v>
+        <v>1033</v>
       </c>
       <c r="B43" t="s">
-        <v>781</v>
+        <v>695</v>
       </c>
       <c r="C43" t="s">
-        <v>781</v>
+        <v>695</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
@@ -20067,7 +20067,7 @@
         <v>1</v>
       </c>
       <c r="X43" t="s">
-        <v>1005</v>
+        <v>919</v>
       </c>
       <c r="Y43" t="b">
         <v>0</v>
@@ -20075,13 +20075,13 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1122</v>
+        <v>1036</v>
       </c>
       <c r="B44" t="s">
-        <v>780</v>
+        <v>694</v>
       </c>
       <c r="C44" t="s">
-        <v>780</v>
+        <v>694</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
@@ -20144,7 +20144,7 @@
         <v>1</v>
       </c>
       <c r="X44" t="s">
-        <v>1018</v>
+        <v>932</v>
       </c>
       <c r="Y44" t="b">
         <v>0</v>
@@ -20152,13 +20152,13 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1120</v>
+        <v>1034</v>
       </c>
       <c r="B45" t="s">
-        <v>782</v>
+        <v>696</v>
       </c>
       <c r="C45" t="s">
-        <v>782</v>
+        <v>696</v>
       </c>
       <c r="D45" t="s">
         <v>20</v>
@@ -20221,7 +20221,7 @@
         <v>1</v>
       </c>
       <c r="X45" t="s">
-        <v>1006</v>
+        <v>920</v>
       </c>
       <c r="Y45" t="b">
         <v>1</v>
@@ -20229,13 +20229,13 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1121</v>
+        <v>1035</v>
       </c>
       <c r="B46" t="s">
-        <v>783</v>
+        <v>697</v>
       </c>
       <c r="C46" t="s">
-        <v>783</v>
+        <v>697</v>
       </c>
       <c r="D46" t="s">
         <v>20</v>
@@ -20298,7 +20298,7 @@
         <v>1</v>
       </c>
       <c r="X46" t="s">
-        <v>1007</v>
+        <v>921</v>
       </c>
       <c r="Y46" t="b">
         <v>0</v>
@@ -20306,13 +20306,13 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>940</v>
+        <v>854</v>
       </c>
       <c r="B47" t="s">
-        <v>784</v>
+        <v>698</v>
       </c>
       <c r="C47" t="s">
-        <v>784</v>
+        <v>698</v>
       </c>
       <c r="D47" t="s">
         <v>20</v>
@@ -20375,7 +20375,7 @@
         <v>1</v>
       </c>
       <c r="X47" t="s">
-        <v>940</v>
+        <v>854</v>
       </c>
       <c r="Y47" t="b">
         <v>0</v>
@@ -20383,13 +20383,13 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>640</v>
+        <v>554</v>
       </c>
       <c r="B48" t="s">
-        <v>747</v>
+        <v>661</v>
       </c>
       <c r="C48" t="s">
-        <v>557</v>
+        <v>1072</v>
       </c>
       <c r="D48" t="s">
         <v>20</v>
@@ -20452,7 +20452,7 @@
         <v>1</v>
       </c>
       <c r="X48" t="s">
-        <v>711</v>
+        <v>625</v>
       </c>
       <c r="Y48" t="b">
         <v>1</v>
@@ -20463,10 +20463,10 @@
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>785</v>
+        <v>699</v>
       </c>
       <c r="C49" t="s">
-        <v>785</v>
+        <v>699</v>
       </c>
       <c r="D49" t="s">
         <v>20</v>
@@ -20540,10 +20540,10 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>786</v>
+        <v>700</v>
       </c>
       <c r="C50" t="s">
-        <v>786</v>
+        <v>700</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
@@ -20614,13 +20614,13 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>950</v>
+        <v>864</v>
       </c>
       <c r="B51" t="s">
-        <v>787</v>
+        <v>701</v>
       </c>
       <c r="C51" t="s">
-        <v>787</v>
+        <v>701</v>
       </c>
       <c r="D51" t="s">
         <v>20</v>
@@ -20683,7 +20683,7 @@
         <v>1</v>
       </c>
       <c r="X51" t="s">
-        <v>1019</v>
+        <v>933</v>
       </c>
       <c r="Y51" t="b">
         <v>0</v>
@@ -20691,13 +20691,13 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>951</v>
+        <v>865</v>
       </c>
       <c r="B52" t="s">
-        <v>788</v>
+        <v>702</v>
       </c>
       <c r="C52" t="s">
-        <v>788</v>
+        <v>702</v>
       </c>
       <c r="D52" t="s">
         <v>20</v>
@@ -20760,7 +20760,7 @@
         <v>1</v>
       </c>
       <c r="X52" t="s">
-        <v>1020</v>
+        <v>934</v>
       </c>
       <c r="Y52" t="b">
         <v>0</v>
@@ -20768,13 +20768,13 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>952</v>
+        <v>866</v>
       </c>
       <c r="B53" t="s">
-        <v>789</v>
+        <v>703</v>
       </c>
       <c r="C53" t="s">
-        <v>789</v>
+        <v>703</v>
       </c>
       <c r="D53" t="s">
         <v>20</v>
@@ -20837,7 +20837,7 @@
         <v>1</v>
       </c>
       <c r="X53" t="s">
-        <v>1022</v>
+        <v>936</v>
       </c>
       <c r="Y53" t="b">
         <v>0</v>
@@ -20845,13 +20845,13 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>953</v>
+        <v>867</v>
       </c>
       <c r="B54" t="s">
-        <v>790</v>
+        <v>704</v>
       </c>
       <c r="C54" t="s">
-        <v>790</v>
+        <v>704</v>
       </c>
       <c r="D54" t="s">
         <v>20</v>
@@ -20914,7 +20914,7 @@
         <v>1</v>
       </c>
       <c r="X54" t="s">
-        <v>1013</v>
+        <v>927</v>
       </c>
       <c r="Y54" t="b">
         <v>0</v>
@@ -20922,13 +20922,13 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>954</v>
+        <v>868</v>
       </c>
       <c r="B55" t="s">
-        <v>791</v>
+        <v>705</v>
       </c>
       <c r="C55" t="s">
-        <v>791</v>
+        <v>705</v>
       </c>
       <c r="D55" t="s">
         <v>20</v>
@@ -20991,7 +20991,7 @@
         <v>1</v>
       </c>
       <c r="X55" t="s">
-        <v>1021</v>
+        <v>935</v>
       </c>
       <c r="Y55" t="b">
         <v>0</v>
@@ -20999,13 +20999,13 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>955</v>
+        <v>869</v>
       </c>
       <c r="B56" t="s">
-        <v>792</v>
+        <v>706</v>
       </c>
       <c r="C56" t="s">
-        <v>792</v>
+        <v>706</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
@@ -21068,7 +21068,7 @@
         <v>1</v>
       </c>
       <c r="X56" t="s">
-        <v>1023</v>
+        <v>937</v>
       </c>
       <c r="Y56" t="b">
         <v>0</v>
@@ -21076,13 +21076,13 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>956</v>
+        <v>870</v>
       </c>
       <c r="B57" t="s">
-        <v>793</v>
+        <v>707</v>
       </c>
       <c r="C57" t="s">
-        <v>793</v>
+        <v>707</v>
       </c>
       <c r="D57" t="s">
         <v>20</v>
@@ -21145,7 +21145,7 @@
         <v>1</v>
       </c>
       <c r="X57" t="s">
-        <v>1024</v>
+        <v>938</v>
       </c>
       <c r="Y57" t="b">
         <v>0</v>
@@ -21153,13 +21153,13 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>957</v>
+        <v>871</v>
       </c>
       <c r="B58" t="s">
-        <v>794</v>
+        <v>708</v>
       </c>
       <c r="C58" t="s">
-        <v>794</v>
+        <v>708</v>
       </c>
       <c r="D58" t="s">
         <v>20</v>
@@ -21222,7 +21222,7 @@
         <v>1</v>
       </c>
       <c r="X58" t="s">
-        <v>1025</v>
+        <v>939</v>
       </c>
       <c r="Y58" t="b">
         <v>0</v>
@@ -21230,13 +21230,13 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>958</v>
+        <v>872</v>
       </c>
       <c r="B59" t="s">
-        <v>795</v>
+        <v>709</v>
       </c>
       <c r="C59" t="s">
-        <v>795</v>
+        <v>709</v>
       </c>
       <c r="D59" t="s">
         <v>20</v>
@@ -21299,7 +21299,7 @@
         <v>1</v>
       </c>
       <c r="X59" t="s">
-        <v>1026</v>
+        <v>940</v>
       </c>
       <c r="Y59" t="b">
         <v>0</v>
@@ -21307,13 +21307,13 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1027</v>
+        <v>941</v>
       </c>
       <c r="B60" t="s">
-        <v>796</v>
+        <v>710</v>
       </c>
       <c r="C60" t="s">
-        <v>796</v>
+        <v>710</v>
       </c>
       <c r="D60" t="s">
         <v>20</v>
@@ -21376,7 +21376,7 @@
         <v>1</v>
       </c>
       <c r="X60" t="s">
-        <v>1027</v>
+        <v>941</v>
       </c>
       <c r="Y60" t="b">
         <v>1</v>
@@ -21387,10 +21387,10 @@
         <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>797</v>
+        <v>711</v>
       </c>
       <c r="C61" t="s">
-        <v>797</v>
+        <v>711</v>
       </c>
       <c r="D61" t="s">
         <v>20</v>
@@ -21464,10 +21464,10 @@
         <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>798</v>
+        <v>712</v>
       </c>
       <c r="C62" t="s">
-        <v>798</v>
+        <v>712</v>
       </c>
       <c r="D62" t="s">
         <v>20</v>
@@ -21541,10 +21541,10 @@
         <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>799</v>
+        <v>713</v>
       </c>
       <c r="C63" t="s">
-        <v>799</v>
+        <v>713</v>
       </c>
       <c r="D63" t="s">
         <v>20</v>
@@ -21618,10 +21618,10 @@
         <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>800</v>
+        <v>714</v>
       </c>
       <c r="C64" t="s">
-        <v>800</v>
+        <v>714</v>
       </c>
       <c r="D64" t="s">
         <v>20</v>
@@ -21695,10 +21695,10 @@
         <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>801</v>
+        <v>715</v>
       </c>
       <c r="C65" t="s">
-        <v>801</v>
+        <v>715</v>
       </c>
       <c r="D65" t="s">
         <v>20</v>
@@ -21772,10 +21772,10 @@
         <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>802</v>
+        <v>716</v>
       </c>
       <c r="C66" t="s">
-        <v>802</v>
+        <v>716</v>
       </c>
       <c r="D66" t="s">
         <v>20</v>
@@ -21849,10 +21849,10 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>803</v>
+        <v>717</v>
       </c>
       <c r="C67" t="s">
-        <v>803</v>
+        <v>717</v>
       </c>
       <c r="D67" t="s">
         <v>20</v>
@@ -21923,13 +21923,13 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>959</v>
+        <v>873</v>
       </c>
       <c r="B68" t="s">
-        <v>804</v>
+        <v>718</v>
       </c>
       <c r="C68" t="s">
-        <v>804</v>
+        <v>718</v>
       </c>
       <c r="D68" t="s">
         <v>20</v>
@@ -21992,7 +21992,7 @@
         <v>1</v>
       </c>
       <c r="X68" t="s">
-        <v>959</v>
+        <v>873</v>
       </c>
       <c r="Y68" t="b">
         <v>1</v>
@@ -22003,10 +22003,10 @@
         <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>805</v>
+        <v>719</v>
       </c>
       <c r="C69" t="s">
-        <v>805</v>
+        <v>719</v>
       </c>
       <c r="D69" t="s">
         <v>20</v>
@@ -22080,10 +22080,10 @@
         <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>806</v>
+        <v>720</v>
       </c>
       <c r="C70" t="s">
-        <v>806</v>
+        <v>720</v>
       </c>
       <c r="D70" t="s">
         <v>20</v>
@@ -22157,10 +22157,10 @@
         <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>807</v>
+        <v>721</v>
       </c>
       <c r="C71" t="s">
-        <v>807</v>
+        <v>721</v>
       </c>
       <c r="D71" t="s">
         <v>20</v>
@@ -22234,10 +22234,10 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>808</v>
+        <v>722</v>
       </c>
       <c r="C72" t="s">
-        <v>808</v>
+        <v>722</v>
       </c>
       <c r="D72" t="s">
         <v>20</v>
@@ -22311,10 +22311,10 @@
         <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>809</v>
+        <v>723</v>
       </c>
       <c r="C73" t="s">
-        <v>809</v>
+        <v>723</v>
       </c>
       <c r="D73" t="s">
         <v>20</v>
@@ -22388,10 +22388,10 @@
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>810</v>
+        <v>724</v>
       </c>
       <c r="C74" t="s">
-        <v>810</v>
+        <v>724</v>
       </c>
       <c r="D74" t="s">
         <v>20</v>
@@ -22465,10 +22465,10 @@
         <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>811</v>
+        <v>725</v>
       </c>
       <c r="C75" t="s">
-        <v>811</v>
+        <v>725</v>
       </c>
       <c r="D75" t="s">
         <v>20</v>
@@ -22542,10 +22542,10 @@
         <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>812</v>
+        <v>726</v>
       </c>
       <c r="C76" t="s">
-        <v>812</v>
+        <v>726</v>
       </c>
       <c r="D76" t="s">
         <v>20</v>
@@ -22619,10 +22619,10 @@
         <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>813</v>
+        <v>727</v>
       </c>
       <c r="C77" t="s">
-        <v>813</v>
+        <v>727</v>
       </c>
       <c r="D77" t="s">
         <v>20</v>
@@ -22696,10 +22696,10 @@
         <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>814</v>
+        <v>728</v>
       </c>
       <c r="C78" t="s">
-        <v>814</v>
+        <v>728</v>
       </c>
       <c r="D78" t="s">
         <v>20</v>
@@ -22773,10 +22773,10 @@
         <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>815</v>
+        <v>729</v>
       </c>
       <c r="C79" t="s">
-        <v>815</v>
+        <v>729</v>
       </c>
       <c r="D79" t="s">
         <v>20</v>
@@ -22850,10 +22850,10 @@
         <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>816</v>
+        <v>730</v>
       </c>
       <c r="C80" t="s">
-        <v>816</v>
+        <v>730</v>
       </c>
       <c r="D80" t="s">
         <v>20</v>
@@ -22927,10 +22927,10 @@
         <v>52</v>
       </c>
       <c r="B81" t="s">
-        <v>818</v>
+        <v>732</v>
       </c>
       <c r="C81" t="s">
-        <v>818</v>
+        <v>732</v>
       </c>
       <c r="D81" t="s">
         <v>20</v>
@@ -22993,7 +22993,7 @@
         <v>1</v>
       </c>
       <c r="X81" t="s">
-        <v>1028</v>
+        <v>942</v>
       </c>
       <c r="Y81" t="b">
         <v>0</v>
@@ -23001,13 +23001,13 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>1123</v>
+        <v>1037</v>
       </c>
       <c r="B82" t="s">
-        <v>817</v>
+        <v>731</v>
       </c>
       <c r="C82" t="s">
-        <v>817</v>
+        <v>731</v>
       </c>
       <c r="D82" t="s">
         <v>20</v>
@@ -23070,7 +23070,7 @@
         <v>1</v>
       </c>
       <c r="X82" t="s">
-        <v>1029</v>
+        <v>943</v>
       </c>
       <c r="Y82" t="b">
         <v>0</v>
@@ -23081,10 +23081,10 @@
         <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>819</v>
+        <v>733</v>
       </c>
       <c r="C83" t="s">
-        <v>819</v>
+        <v>733</v>
       </c>
       <c r="D83" t="s">
         <v>20</v>
@@ -23147,7 +23147,7 @@
         <v>1</v>
       </c>
       <c r="X83" t="s">
-        <v>1030</v>
+        <v>944</v>
       </c>
       <c r="Y83" t="b">
         <v>0</v>
@@ -23158,10 +23158,10 @@
         <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>820</v>
+        <v>734</v>
       </c>
       <c r="C84" t="s">
-        <v>820</v>
+        <v>734</v>
       </c>
       <c r="D84" t="s">
         <v>20</v>
@@ -23235,10 +23235,10 @@
         <v>69</v>
       </c>
       <c r="B85" t="s">
-        <v>821</v>
+        <v>735</v>
       </c>
       <c r="C85" t="s">
-        <v>821</v>
+        <v>735</v>
       </c>
       <c r="D85" t="s">
         <v>20</v>
@@ -23309,13 +23309,13 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>1124</v>
+        <v>1038</v>
       </c>
       <c r="B86" t="s">
-        <v>822</v>
+        <v>736</v>
       </c>
       <c r="C86" t="s">
-        <v>822</v>
+        <v>736</v>
       </c>
       <c r="D86" t="s">
         <v>20</v>
@@ -23378,7 +23378,7 @@
         <v>1</v>
       </c>
       <c r="X86" t="s">
-        <v>1031</v>
+        <v>945</v>
       </c>
       <c r="Y86" t="b">
         <v>0</v>
@@ -23386,13 +23386,13 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>1125</v>
+        <v>1039</v>
       </c>
       <c r="B87" t="s">
-        <v>823</v>
+        <v>737</v>
       </c>
       <c r="C87" t="s">
-        <v>823</v>
+        <v>737</v>
       </c>
       <c r="D87" t="s">
         <v>20</v>
@@ -23455,7 +23455,7 @@
         <v>1</v>
       </c>
       <c r="X87" t="s">
-        <v>1032</v>
+        <v>946</v>
       </c>
       <c r="Y87" t="b">
         <v>0</v>
@@ -23463,13 +23463,13 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>1126</v>
+        <v>1040</v>
       </c>
       <c r="B88" t="s">
-        <v>824</v>
+        <v>738</v>
       </c>
       <c r="C88" t="s">
-        <v>824</v>
+        <v>738</v>
       </c>
       <c r="D88" t="s">
         <v>20</v>
@@ -23532,7 +23532,7 @@
         <v>1</v>
       </c>
       <c r="X88" t="s">
-        <v>1033</v>
+        <v>947</v>
       </c>
       <c r="Y88" t="b">
         <v>0</v>
@@ -23540,13 +23540,13 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>1127</v>
+        <v>1041</v>
       </c>
       <c r="B89" t="s">
-        <v>825</v>
+        <v>739</v>
       </c>
       <c r="C89" t="s">
-        <v>825</v>
+        <v>739</v>
       </c>
       <c r="D89" t="s">
         <v>20</v>
@@ -23609,7 +23609,7 @@
         <v>1</v>
       </c>
       <c r="X89" t="s">
-        <v>1034</v>
+        <v>948</v>
       </c>
       <c r="Y89" t="b">
         <v>0</v>
@@ -23617,13 +23617,13 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>1128</v>
+        <v>1042</v>
       </c>
       <c r="B90" t="s">
-        <v>826</v>
+        <v>740</v>
       </c>
       <c r="C90" t="s">
-        <v>826</v>
+        <v>740</v>
       </c>
       <c r="D90" t="s">
         <v>20</v>
@@ -23686,7 +23686,7 @@
         <v>1</v>
       </c>
       <c r="X90" t="s">
-        <v>1035</v>
+        <v>949</v>
       </c>
       <c r="Y90" t="b">
         <v>0</v>
@@ -23694,13 +23694,13 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>1129</v>
+        <v>1043</v>
       </c>
       <c r="B91" t="s">
-        <v>827</v>
+        <v>741</v>
       </c>
       <c r="C91" t="s">
-        <v>827</v>
+        <v>741</v>
       </c>
       <c r="D91" t="s">
         <v>20</v>
@@ -23763,7 +23763,7 @@
         <v>1</v>
       </c>
       <c r="X91" t="s">
-        <v>1036</v>
+        <v>950</v>
       </c>
       <c r="Y91" t="b">
         <v>0</v>
@@ -23771,13 +23771,13 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>1130</v>
+        <v>1044</v>
       </c>
       <c r="B92" t="s">
-        <v>828</v>
+        <v>742</v>
       </c>
       <c r="C92" t="s">
-        <v>828</v>
+        <v>742</v>
       </c>
       <c r="D92" t="s">
         <v>20</v>
@@ -23840,7 +23840,7 @@
         <v>1</v>
       </c>
       <c r="X92" t="s">
-        <v>1037</v>
+        <v>951</v>
       </c>
       <c r="Y92" t="b">
         <v>0</v>
@@ -23848,13 +23848,13 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>1131</v>
+        <v>1045</v>
       </c>
       <c r="B93" t="s">
-        <v>829</v>
+        <v>743</v>
       </c>
       <c r="C93" t="s">
-        <v>829</v>
+        <v>743</v>
       </c>
       <c r="D93" t="s">
         <v>20</v>
@@ -23917,7 +23917,7 @@
         <v>1</v>
       </c>
       <c r="X93" t="s">
-        <v>1038</v>
+        <v>952</v>
       </c>
       <c r="Y93" t="b">
         <v>0</v>
@@ -23925,13 +23925,13 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>1132</v>
+        <v>1046</v>
       </c>
       <c r="B94" t="s">
-        <v>830</v>
+        <v>744</v>
       </c>
       <c r="C94" t="s">
-        <v>830</v>
+        <v>744</v>
       </c>
       <c r="D94" t="s">
         <v>20</v>
@@ -23994,7 +23994,7 @@
         <v>1</v>
       </c>
       <c r="X94" t="s">
-        <v>1039</v>
+        <v>953</v>
       </c>
       <c r="Y94" t="b">
         <v>0</v>
@@ -24002,13 +24002,13 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>1133</v>
+        <v>1047</v>
       </c>
       <c r="B95" t="s">
-        <v>831</v>
+        <v>745</v>
       </c>
       <c r="C95" t="s">
-        <v>831</v>
+        <v>745</v>
       </c>
       <c r="D95" t="s">
         <v>20</v>
@@ -24071,7 +24071,7 @@
         <v>1</v>
       </c>
       <c r="X95" t="s">
-        <v>1040</v>
+        <v>954</v>
       </c>
       <c r="Y95" t="b">
         <v>0</v>
@@ -24079,13 +24079,13 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>1134</v>
+        <v>1048</v>
       </c>
       <c r="B96" t="s">
-        <v>832</v>
+        <v>746</v>
       </c>
       <c r="C96" t="s">
-        <v>832</v>
+        <v>746</v>
       </c>
       <c r="D96" t="s">
         <v>20</v>
@@ -24148,7 +24148,7 @@
         <v>1</v>
       </c>
       <c r="X96" t="s">
-        <v>1041</v>
+        <v>955</v>
       </c>
       <c r="Y96" t="b">
         <v>0</v>
@@ -24156,13 +24156,13 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>1135</v>
+        <v>1049</v>
       </c>
       <c r="B97" t="s">
-        <v>833</v>
+        <v>747</v>
       </c>
       <c r="C97" t="s">
-        <v>833</v>
+        <v>747</v>
       </c>
       <c r="D97" t="s">
         <v>20</v>
@@ -24225,7 +24225,7 @@
         <v>1</v>
       </c>
       <c r="X97" t="s">
-        <v>1042</v>
+        <v>956</v>
       </c>
       <c r="Y97" t="b">
         <v>0</v>
@@ -24233,13 +24233,13 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>1136</v>
+        <v>1050</v>
       </c>
       <c r="B98" t="s">
-        <v>834</v>
+        <v>748</v>
       </c>
       <c r="C98" t="s">
-        <v>834</v>
+        <v>748</v>
       </c>
       <c r="D98" t="s">
         <v>20</v>
@@ -24302,7 +24302,7 @@
         <v>1</v>
       </c>
       <c r="X98" t="s">
-        <v>1043</v>
+        <v>957</v>
       </c>
       <c r="Y98" t="b">
         <v>0</v>
@@ -24310,13 +24310,13 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>1137</v>
+        <v>1051</v>
       </c>
       <c r="B99" t="s">
-        <v>835</v>
+        <v>749</v>
       </c>
       <c r="C99" t="s">
-        <v>835</v>
+        <v>749</v>
       </c>
       <c r="D99" t="s">
         <v>20</v>
@@ -24379,7 +24379,7 @@
         <v>1</v>
       </c>
       <c r="X99" t="s">
-        <v>1044</v>
+        <v>958</v>
       </c>
       <c r="Y99" t="b">
         <v>0</v>
@@ -24387,13 +24387,13 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>1138</v>
+        <v>1052</v>
       </c>
       <c r="B100" t="s">
-        <v>836</v>
+        <v>750</v>
       </c>
       <c r="C100" t="s">
-        <v>836</v>
+        <v>750</v>
       </c>
       <c r="D100" t="s">
         <v>20</v>
@@ -24456,7 +24456,7 @@
         <v>1</v>
       </c>
       <c r="X100" t="s">
-        <v>1045</v>
+        <v>959</v>
       </c>
       <c r="Y100" t="b">
         <v>0</v>
@@ -24464,13 +24464,13 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>1139</v>
+        <v>1053</v>
       </c>
       <c r="B101" t="s">
-        <v>837</v>
+        <v>751</v>
       </c>
       <c r="C101" t="s">
-        <v>837</v>
+        <v>751</v>
       </c>
       <c r="D101" t="s">
         <v>20</v>
@@ -24533,7 +24533,7 @@
         <v>1</v>
       </c>
       <c r="X101" t="s">
-        <v>1046</v>
+        <v>960</v>
       </c>
       <c r="Y101" t="b">
         <v>0</v>
@@ -24541,13 +24541,13 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>1140</v>
+        <v>1054</v>
       </c>
       <c r="B102" t="s">
-        <v>838</v>
+        <v>752</v>
       </c>
       <c r="C102" t="s">
-        <v>838</v>
+        <v>752</v>
       </c>
       <c r="D102" t="s">
         <v>20</v>
@@ -24610,7 +24610,7 @@
         <v>1</v>
       </c>
       <c r="X102" t="s">
-        <v>1047</v>
+        <v>961</v>
       </c>
       <c r="Y102" t="b">
         <v>1</v>
@@ -24621,10 +24621,10 @@
         <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>839</v>
+        <v>753</v>
       </c>
       <c r="C103" t="s">
-        <v>839</v>
+        <v>753</v>
       </c>
       <c r="D103" t="s">
         <v>20</v>
@@ -24698,10 +24698,10 @@
         <v>94</v>
       </c>
       <c r="B104" t="s">
-        <v>840</v>
+        <v>754</v>
       </c>
       <c r="C104" t="s">
-        <v>840</v>
+        <v>754</v>
       </c>
       <c r="D104" t="s">
         <v>20</v>
@@ -24775,10 +24775,10 @@
         <v>177</v>
       </c>
       <c r="B105" t="s">
-        <v>841</v>
+        <v>755</v>
       </c>
       <c r="C105" t="s">
-        <v>841</v>
+        <v>755</v>
       </c>
       <c r="D105" t="s">
         <v>20</v>
@@ -24852,10 +24852,10 @@
         <v>70</v>
       </c>
       <c r="B106" t="s">
-        <v>842</v>
+        <v>756</v>
       </c>
       <c r="C106" t="s">
-        <v>842</v>
+        <v>756</v>
       </c>
       <c r="D106" t="s">
         <v>20</v>
@@ -24929,10 +24929,10 @@
         <v>71</v>
       </c>
       <c r="B107" t="s">
-        <v>843</v>
+        <v>757</v>
       </c>
       <c r="C107" t="s">
-        <v>843</v>
+        <v>757</v>
       </c>
       <c r="D107" t="s">
         <v>20</v>
@@ -25003,13 +25003,13 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>1048</v>
+        <v>962</v>
       </c>
       <c r="B108" t="s">
-        <v>844</v>
+        <v>758</v>
       </c>
       <c r="C108" t="s">
-        <v>844</v>
+        <v>758</v>
       </c>
       <c r="D108" t="s">
         <v>20</v>
@@ -25072,7 +25072,7 @@
         <v>1</v>
       </c>
       <c r="X108" t="s">
-        <v>1048</v>
+        <v>962</v>
       </c>
       <c r="Y108" t="b">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>178</v>
       </c>
       <c r="B109" t="s">
-        <v>845</v>
+        <v>759</v>
       </c>
       <c r="C109" t="s">
-        <v>845</v>
+        <v>759</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -25157,13 +25157,13 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>1101</v>
+        <v>1015</v>
       </c>
       <c r="B110" t="s">
-        <v>846</v>
+        <v>760</v>
       </c>
       <c r="C110" t="s">
-        <v>846</v>
+        <v>760</v>
       </c>
       <c r="D110" t="s">
         <v>20</v>
@@ -25226,7 +25226,7 @@
         <v>1</v>
       </c>
       <c r="X110" t="s">
-        <v>1049</v>
+        <v>963</v>
       </c>
       <c r="Y110" t="b">
         <v>0</v>
@@ -25237,10 +25237,10 @@
         <v>72</v>
       </c>
       <c r="B111" t="s">
-        <v>847</v>
+        <v>761</v>
       </c>
       <c r="C111" t="s">
-        <v>847</v>
+        <v>761</v>
       </c>
       <c r="D111" t="s">
         <v>20</v>
@@ -25303,7 +25303,7 @@
         <v>1</v>
       </c>
       <c r="X111" t="s">
-        <v>1050</v>
+        <v>964</v>
       </c>
       <c r="Y111" t="b">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>34</v>
       </c>
       <c r="B112" t="s">
-        <v>848</v>
+        <v>762</v>
       </c>
       <c r="C112" t="s">
-        <v>848</v>
+        <v>762</v>
       </c>
       <c r="D112" t="s">
         <v>20</v>
@@ -25388,13 +25388,13 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>960</v>
+        <v>874</v>
       </c>
       <c r="B113" t="s">
-        <v>849</v>
+        <v>763</v>
       </c>
       <c r="C113" t="s">
-        <v>849</v>
+        <v>763</v>
       </c>
       <c r="D113" t="s">
         <v>20</v>
@@ -25457,7 +25457,7 @@
         <v>1</v>
       </c>
       <c r="X113" t="s">
-        <v>1057</v>
+        <v>971</v>
       </c>
       <c r="Y113" t="b">
         <v>0</v>
@@ -25468,10 +25468,10 @@
         <v>36</v>
       </c>
       <c r="B114" t="s">
-        <v>850</v>
+        <v>764</v>
       </c>
       <c r="C114" t="s">
-        <v>850</v>
+        <v>764</v>
       </c>
       <c r="D114" t="s">
         <v>20</v>
@@ -25545,10 +25545,10 @@
         <v>322</v>
       </c>
       <c r="B115" t="s">
-        <v>851</v>
+        <v>765</v>
       </c>
       <c r="C115" t="s">
-        <v>851</v>
+        <v>765</v>
       </c>
       <c r="D115" t="s">
         <v>20</v>
@@ -25622,10 +25622,10 @@
         <v>37</v>
       </c>
       <c r="B116" t="s">
-        <v>852</v>
+        <v>766</v>
       </c>
       <c r="C116" t="s">
-        <v>852</v>
+        <v>766</v>
       </c>
       <c r="D116" t="s">
         <v>20</v>
@@ -25699,10 +25699,10 @@
         <v>38</v>
       </c>
       <c r="B117" t="s">
-        <v>853</v>
+        <v>767</v>
       </c>
       <c r="C117" t="s">
-        <v>853</v>
+        <v>767</v>
       </c>
       <c r="D117" t="s">
         <v>20</v>
@@ -25773,13 +25773,13 @@
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>961</v>
+        <v>875</v>
       </c>
       <c r="B118" t="s">
-        <v>854</v>
+        <v>768</v>
       </c>
       <c r="C118" t="s">
-        <v>854</v>
+        <v>768</v>
       </c>
       <c r="D118" t="s">
         <v>20</v>
@@ -25842,7 +25842,7 @@
         <v>1</v>
       </c>
       <c r="X118" t="s">
-        <v>1052</v>
+        <v>966</v>
       </c>
       <c r="Y118" t="b">
         <v>1</v>
@@ -25850,13 +25850,13 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>962</v>
+        <v>876</v>
       </c>
       <c r="B119" t="s">
-        <v>855</v>
+        <v>769</v>
       </c>
       <c r="C119" t="s">
-        <v>855</v>
+        <v>769</v>
       </c>
       <c r="D119" t="s">
         <v>20</v>
@@ -25919,7 +25919,7 @@
         <v>1</v>
       </c>
       <c r="X119" t="s">
-        <v>1058</v>
+        <v>972</v>
       </c>
       <c r="Y119" t="b">
         <v>1</v>
@@ -25927,13 +25927,13 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>963</v>
+        <v>877</v>
       </c>
       <c r="B120" t="s">
-        <v>856</v>
+        <v>770</v>
       </c>
       <c r="C120" t="s">
-        <v>856</v>
+        <v>770</v>
       </c>
       <c r="D120" t="s">
         <v>20</v>
@@ -25996,7 +25996,7 @@
         <v>1</v>
       </c>
       <c r="X120" t="s">
-        <v>1053</v>
+        <v>967</v>
       </c>
       <c r="Y120" t="b">
         <v>1</v>
@@ -26004,13 +26004,13 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>964</v>
+        <v>878</v>
       </c>
       <c r="B121" t="s">
-        <v>857</v>
+        <v>771</v>
       </c>
       <c r="C121" t="s">
-        <v>857</v>
+        <v>771</v>
       </c>
       <c r="D121" t="s">
         <v>20</v>
@@ -26073,7 +26073,7 @@
         <v>1</v>
       </c>
       <c r="X121" t="s">
-        <v>1054</v>
+        <v>968</v>
       </c>
       <c r="Y121" t="b">
         <v>1</v>
@@ -26081,13 +26081,13 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>965</v>
+        <v>879</v>
       </c>
       <c r="B122" t="s">
-        <v>858</v>
+        <v>772</v>
       </c>
       <c r="C122" t="s">
-        <v>858</v>
+        <v>772</v>
       </c>
       <c r="D122" t="s">
         <v>20</v>
@@ -26150,7 +26150,7 @@
         <v>1</v>
       </c>
       <c r="X122" t="s">
-        <v>1055</v>
+        <v>969</v>
       </c>
       <c r="Y122" t="b">
         <v>1</v>
@@ -26158,13 +26158,13 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>966</v>
+        <v>880</v>
       </c>
       <c r="B123" t="s">
-        <v>859</v>
+        <v>773</v>
       </c>
       <c r="C123" t="s">
-        <v>859</v>
+        <v>773</v>
       </c>
       <c r="D123" t="s">
         <v>20</v>
@@ -26227,7 +26227,7 @@
         <v>1</v>
       </c>
       <c r="X123" t="s">
-        <v>1056</v>
+        <v>970</v>
       </c>
       <c r="Y123" t="b">
         <v>1</v>
@@ -26235,13 +26235,13 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>941</v>
+        <v>855</v>
       </c>
       <c r="B124" t="s">
-        <v>860</v>
+        <v>774</v>
       </c>
       <c r="C124" t="s">
-        <v>860</v>
+        <v>774</v>
       </c>
       <c r="D124" t="s">
         <v>20</v>
@@ -26304,7 +26304,7 @@
         <v>1</v>
       </c>
       <c r="X124" t="s">
-        <v>1059</v>
+        <v>973</v>
       </c>
       <c r="Y124" t="b">
         <v>1</v>
@@ -26312,13 +26312,13 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>652</v>
+        <v>566</v>
       </c>
       <c r="B125" t="s">
-        <v>748</v>
+        <v>662</v>
       </c>
       <c r="C125" t="s">
-        <v>569</v>
+        <v>1073</v>
       </c>
       <c r="D125" t="s">
         <v>20</v>
@@ -26381,7 +26381,7 @@
         <v>1</v>
       </c>
       <c r="X125" t="s">
-        <v>652</v>
+        <v>566</v>
       </c>
       <c r="Y125" t="b">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>861</v>
+        <v>775</v>
       </c>
       <c r="C126" t="s">
-        <v>861</v>
+        <v>775</v>
       </c>
       <c r="D126" t="s">
         <v>20</v>
@@ -26458,7 +26458,7 @@
         <v>1</v>
       </c>
       <c r="X126" t="s">
-        <v>1060</v>
+        <v>974</v>
       </c>
       <c r="Y126" t="b">
         <v>0</v>
@@ -26469,10 +26469,10 @@
         <v>40</v>
       </c>
       <c r="B127" t="s">
-        <v>862</v>
+        <v>776</v>
       </c>
       <c r="C127" t="s">
-        <v>862</v>
+        <v>776</v>
       </c>
       <c r="D127" t="s">
         <v>20</v>
@@ -26535,7 +26535,7 @@
         <v>1</v>
       </c>
       <c r="X127" t="s">
-        <v>1060</v>
+        <v>974</v>
       </c>
       <c r="Y127" t="b">
         <v>0</v>
@@ -26543,13 +26543,13 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>1061</v>
+        <v>975</v>
       </c>
       <c r="B128" t="s">
-        <v>863</v>
+        <v>777</v>
       </c>
       <c r="C128" t="s">
-        <v>863</v>
+        <v>777</v>
       </c>
       <c r="D128" t="s">
         <v>20</v>
@@ -26612,7 +26612,7 @@
         <v>1</v>
       </c>
       <c r="X128" t="s">
-        <v>1061</v>
+        <v>975</v>
       </c>
       <c r="Y128" t="b">
         <v>0</v>
@@ -26620,13 +26620,13 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>1099</v>
+        <v>1013</v>
       </c>
       <c r="B129" t="s">
-        <v>865</v>
+        <v>779</v>
       </c>
       <c r="C129" t="s">
-        <v>865</v>
+        <v>779</v>
       </c>
       <c r="D129" t="s">
         <v>20</v>
@@ -26689,7 +26689,7 @@
         <v>1</v>
       </c>
       <c r="X129" t="s">
-        <v>1100</v>
+        <v>1014</v>
       </c>
       <c r="Y129" t="b">
         <v>0</v>
@@ -26700,10 +26700,10 @@
         <v>56</v>
       </c>
       <c r="B130" t="s">
-        <v>864</v>
+        <v>778</v>
       </c>
       <c r="C130" t="s">
-        <v>864</v>
+        <v>778</v>
       </c>
       <c r="D130" t="s">
         <v>20</v>
@@ -26774,13 +26774,13 @@
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>654</v>
+        <v>568</v>
       </c>
       <c r="B131" t="s">
-        <v>867</v>
+        <v>781</v>
       </c>
       <c r="C131" t="s">
-        <v>572</v>
+        <v>1074</v>
       </c>
       <c r="D131" t="s">
         <v>20</v>
@@ -26843,7 +26843,7 @@
         <v>1</v>
       </c>
       <c r="X131" t="s">
-        <v>722</v>
+        <v>636</v>
       </c>
       <c r="Y131" t="b">
         <v>1</v>
@@ -26851,13 +26851,13 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>1098</v>
+        <v>1012</v>
       </c>
       <c r="B132" t="s">
-        <v>866</v>
+        <v>780</v>
       </c>
       <c r="C132" t="s">
-        <v>866</v>
+        <v>780</v>
       </c>
       <c r="D132" t="s">
         <v>20</v>
@@ -26920,7 +26920,7 @@
         <v>1</v>
       </c>
       <c r="X132" t="s">
-        <v>1062</v>
+        <v>976</v>
       </c>
       <c r="Y132" t="b">
         <v>0</v>
@@ -26928,13 +26928,13 @@
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>942</v>
+        <v>856</v>
       </c>
       <c r="B133" t="s">
-        <v>868</v>
+        <v>782</v>
       </c>
       <c r="C133" t="s">
-        <v>868</v>
+        <v>782</v>
       </c>
       <c r="D133" t="s">
         <v>20</v>
@@ -26997,7 +26997,7 @@
         <v>1</v>
       </c>
       <c r="X133" t="s">
-        <v>942</v>
+        <v>856</v>
       </c>
       <c r="Y133" t="b">
         <v>0</v>
@@ -27008,10 +27008,10 @@
         <v>57</v>
       </c>
       <c r="B134" t="s">
-        <v>869</v>
+        <v>783</v>
       </c>
       <c r="C134" t="s">
-        <v>869</v>
+        <v>783</v>
       </c>
       <c r="D134" t="s">
         <v>20</v>
@@ -27085,10 +27085,10 @@
         <v>97</v>
       </c>
       <c r="B135" t="s">
-        <v>870</v>
+        <v>784</v>
       </c>
       <c r="C135" t="s">
-        <v>870</v>
+        <v>784</v>
       </c>
       <c r="D135" t="s">
         <v>20</v>
@@ -27159,13 +27159,13 @@
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>967</v>
+        <v>881</v>
       </c>
       <c r="B136" t="s">
-        <v>871</v>
+        <v>785</v>
       </c>
       <c r="C136" t="s">
-        <v>871</v>
+        <v>785</v>
       </c>
       <c r="D136" t="s">
         <v>20</v>
@@ -27228,7 +27228,7 @@
         <v>1</v>
       </c>
       <c r="X136" t="s">
-        <v>1064</v>
+        <v>978</v>
       </c>
       <c r="Y136" t="b">
         <v>0</v>
@@ -27239,10 +27239,10 @@
         <v>98</v>
       </c>
       <c r="B137" t="s">
-        <v>872</v>
+        <v>786</v>
       </c>
       <c r="C137" t="s">
-        <v>872</v>
+        <v>786</v>
       </c>
       <c r="D137" t="s">
         <v>20</v>
@@ -27316,10 +27316,10 @@
         <v>99</v>
       </c>
       <c r="B138" t="s">
-        <v>873</v>
+        <v>787</v>
       </c>
       <c r="C138" t="s">
-        <v>873</v>
+        <v>787</v>
       </c>
       <c r="D138" t="s">
         <v>20</v>
@@ -27393,10 +27393,10 @@
         <v>100</v>
       </c>
       <c r="B139" t="s">
-        <v>874</v>
+        <v>788</v>
       </c>
       <c r="C139" t="s">
-        <v>874</v>
+        <v>788</v>
       </c>
       <c r="D139" t="s">
         <v>20</v>
@@ -27470,10 +27470,10 @@
         <v>101</v>
       </c>
       <c r="B140" t="s">
-        <v>875</v>
+        <v>789</v>
       </c>
       <c r="C140" t="s">
-        <v>875</v>
+        <v>789</v>
       </c>
       <c r="D140" t="s">
         <v>20</v>
@@ -27544,13 +27544,13 @@
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>656</v>
+        <v>570</v>
       </c>
       <c r="B141" t="s">
-        <v>749</v>
+        <v>663</v>
       </c>
       <c r="C141" t="s">
-        <v>574</v>
+        <v>1075</v>
       </c>
       <c r="D141" t="s">
         <v>20</v>
@@ -27613,7 +27613,7 @@
         <v>1</v>
       </c>
       <c r="X141" t="s">
-        <v>656</v>
+        <v>570</v>
       </c>
       <c r="Y141" t="b">
         <v>1</v>
@@ -27621,13 +27621,13 @@
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>1102</v>
+        <v>1016</v>
       </c>
       <c r="B142" t="s">
-        <v>876</v>
+        <v>790</v>
       </c>
       <c r="C142" t="s">
-        <v>876</v>
+        <v>790</v>
       </c>
       <c r="D142" t="s">
         <v>20</v>
@@ -27690,7 +27690,7 @@
         <v>1</v>
       </c>
       <c r="X142" t="s">
-        <v>1063</v>
+        <v>977</v>
       </c>
       <c r="Y142" t="b">
         <v>0</v>
@@ -27698,13 +27698,13 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>1103</v>
+        <v>1017</v>
       </c>
       <c r="B143" t="s">
-        <v>877</v>
+        <v>791</v>
       </c>
       <c r="C143" t="s">
-        <v>877</v>
+        <v>791</v>
       </c>
       <c r="D143" t="s">
         <v>20</v>
@@ -27767,7 +27767,7 @@
         <v>1</v>
       </c>
       <c r="X143" t="s">
-        <v>1065</v>
+        <v>979</v>
       </c>
       <c r="Y143" t="b">
         <v>0</v>
@@ -27775,13 +27775,13 @@
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>1066</v>
+        <v>980</v>
       </c>
       <c r="B144" t="s">
-        <v>878</v>
+        <v>792</v>
       </c>
       <c r="C144" t="s">
-        <v>878</v>
+        <v>792</v>
       </c>
       <c r="D144" t="s">
         <v>20</v>
@@ -27844,7 +27844,7 @@
         <v>1</v>
       </c>
       <c r="X144" t="s">
-        <v>1066</v>
+        <v>980</v>
       </c>
       <c r="Y144" t="b">
         <v>1</v>
@@ -27852,13 +27852,13 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>968</v>
+        <v>882</v>
       </c>
       <c r="B145" t="s">
-        <v>879</v>
+        <v>793</v>
       </c>
       <c r="C145" t="s">
-        <v>879</v>
+        <v>793</v>
       </c>
       <c r="D145" t="s">
         <v>20</v>
@@ -27921,7 +27921,7 @@
         <v>1</v>
       </c>
       <c r="X145" t="s">
-        <v>1067</v>
+        <v>981</v>
       </c>
       <c r="Y145" t="b">
         <v>0</v>
@@ -27929,13 +27929,13 @@
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>969</v>
+        <v>883</v>
       </c>
       <c r="B146" t="s">
-        <v>880</v>
+        <v>794</v>
       </c>
       <c r="C146" t="s">
-        <v>880</v>
+        <v>794</v>
       </c>
       <c r="D146" t="s">
         <v>20</v>
@@ -27998,7 +27998,7 @@
         <v>1</v>
       </c>
       <c r="X146" t="s">
-        <v>1068</v>
+        <v>982</v>
       </c>
       <c r="Y146" t="b">
         <v>1</v>
@@ -28009,10 +28009,10 @@
         <v>102</v>
       </c>
       <c r="B147" t="s">
-        <v>881</v>
+        <v>795</v>
       </c>
       <c r="C147" t="s">
-        <v>881</v>
+        <v>795</v>
       </c>
       <c r="D147" t="s">
         <v>20</v>
@@ -28075,7 +28075,7 @@
         <v>1</v>
       </c>
       <c r="X147" t="s">
-        <v>1069</v>
+        <v>983</v>
       </c>
       <c r="Y147" t="b">
         <v>1</v>
@@ -28083,13 +28083,13 @@
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>1104</v>
+        <v>1018</v>
       </c>
       <c r="B148" t="s">
-        <v>882</v>
+        <v>796</v>
       </c>
       <c r="C148" t="s">
-        <v>882</v>
+        <v>796</v>
       </c>
       <c r="D148" t="s">
         <v>20</v>
@@ -28152,7 +28152,7 @@
         <v>1</v>
       </c>
       <c r="X148" t="s">
-        <v>1070</v>
+        <v>984</v>
       </c>
       <c r="Y148" t="b">
         <v>1</v>
@@ -28163,10 +28163,10 @@
         <v>103</v>
       </c>
       <c r="B149" t="s">
-        <v>883</v>
+        <v>797</v>
       </c>
       <c r="C149" t="s">
-        <v>883</v>
+        <v>797</v>
       </c>
       <c r="D149" t="s">
         <v>20</v>
@@ -28240,10 +28240,10 @@
         <v>74</v>
       </c>
       <c r="B150" t="s">
-        <v>884</v>
+        <v>798</v>
       </c>
       <c r="C150" t="s">
-        <v>884</v>
+        <v>798</v>
       </c>
       <c r="D150" t="s">
         <v>20</v>
@@ -28314,13 +28314,13 @@
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>1105</v>
+        <v>1019</v>
       </c>
       <c r="B151" t="s">
-        <v>888</v>
+        <v>802</v>
       </c>
       <c r="C151" t="s">
-        <v>888</v>
+        <v>802</v>
       </c>
       <c r="D151" t="s">
         <v>20</v>
@@ -28383,7 +28383,7 @@
         <v>1</v>
       </c>
       <c r="X151" t="s">
-        <v>1073</v>
+        <v>987</v>
       </c>
       <c r="Y151" t="b">
         <v>0</v>
@@ -28394,10 +28394,10 @@
         <v>77</v>
       </c>
       <c r="B152" t="s">
-        <v>889</v>
+        <v>803</v>
       </c>
       <c r="C152" t="s">
-        <v>889</v>
+        <v>803</v>
       </c>
       <c r="D152" t="s">
         <v>20</v>
@@ -28468,13 +28468,13 @@
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>1106</v>
+        <v>1020</v>
       </c>
       <c r="B153" t="s">
-        <v>890</v>
+        <v>804</v>
       </c>
       <c r="C153" t="s">
-        <v>890</v>
+        <v>804</v>
       </c>
       <c r="D153" t="s">
         <v>20</v>
@@ -28537,7 +28537,7 @@
         <v>1</v>
       </c>
       <c r="X153" t="s">
-        <v>1074</v>
+        <v>988</v>
       </c>
       <c r="Y153" t="b">
         <v>0</v>
@@ -28545,13 +28545,13 @@
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>1107</v>
+        <v>1021</v>
       </c>
       <c r="B154" t="s">
-        <v>891</v>
+        <v>805</v>
       </c>
       <c r="C154" t="s">
-        <v>891</v>
+        <v>805</v>
       </c>
       <c r="D154" t="s">
         <v>20</v>
@@ -28614,7 +28614,7 @@
         <v>1</v>
       </c>
       <c r="X154" t="s">
-        <v>1075</v>
+        <v>989</v>
       </c>
       <c r="Y154" t="b">
         <v>0</v>
@@ -28622,13 +28622,13 @@
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>1108</v>
+        <v>1022</v>
       </c>
       <c r="B155" t="s">
-        <v>892</v>
+        <v>806</v>
       </c>
       <c r="C155" t="s">
-        <v>892</v>
+        <v>806</v>
       </c>
       <c r="D155" t="s">
         <v>20</v>
@@ -28691,7 +28691,7 @@
         <v>1</v>
       </c>
       <c r="X155" t="s">
-        <v>1076</v>
+        <v>990</v>
       </c>
       <c r="Y155" t="b">
         <v>0</v>
@@ -28699,13 +28699,13 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>970</v>
+        <v>884</v>
       </c>
       <c r="B156" t="s">
-        <v>885</v>
+        <v>799</v>
       </c>
       <c r="C156" t="s">
-        <v>885</v>
+        <v>799</v>
       </c>
       <c r="D156" t="s">
         <v>20</v>
@@ -28776,13 +28776,13 @@
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>1071</v>
+        <v>985</v>
       </c>
       <c r="B157" t="s">
-        <v>886</v>
+        <v>800</v>
       </c>
       <c r="C157" t="s">
-        <v>886</v>
+        <v>800</v>
       </c>
       <c r="D157" t="s">
         <v>20</v>
@@ -28845,7 +28845,7 @@
         <v>1</v>
       </c>
       <c r="X157" t="s">
-        <v>1072</v>
+        <v>986</v>
       </c>
       <c r="Y157" t="b">
         <v>1</v>
@@ -28853,13 +28853,13 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>971</v>
+        <v>885</v>
       </c>
       <c r="B158" t="s">
-        <v>887</v>
+        <v>801</v>
       </c>
       <c r="C158" t="s">
-        <v>887</v>
+        <v>801</v>
       </c>
       <c r="D158" t="s">
         <v>20</v>
@@ -28930,13 +28930,13 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>661</v>
+        <v>575</v>
       </c>
       <c r="B159" t="s">
-        <v>750</v>
+        <v>664</v>
       </c>
       <c r="C159" t="s">
-        <v>579</v>
+        <v>1076</v>
       </c>
       <c r="D159" t="s">
         <v>20</v>
@@ -28999,7 +28999,7 @@
         <v>1</v>
       </c>
       <c r="X159" t="s">
-        <v>726</v>
+        <v>640</v>
       </c>
       <c r="Y159" t="b">
         <v>0</v>
@@ -29010,10 +29010,10 @@
         <v>58</v>
       </c>
       <c r="B160" t="s">
-        <v>893</v>
+        <v>807</v>
       </c>
       <c r="C160" t="s">
-        <v>893</v>
+        <v>807</v>
       </c>
       <c r="D160" t="s">
         <v>20</v>
@@ -29087,10 +29087,10 @@
         <v>106</v>
       </c>
       <c r="B161" t="s">
-        <v>894</v>
+        <v>808</v>
       </c>
       <c r="C161" t="s">
-        <v>894</v>
+        <v>808</v>
       </c>
       <c r="D161" t="s">
         <v>20</v>
@@ -29153,7 +29153,7 @@
         <v>1</v>
       </c>
       <c r="X161" t="s">
-        <v>1077</v>
+        <v>991</v>
       </c>
       <c r="Y161" t="b">
         <v>0</v>
@@ -29161,13 +29161,13 @@
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>972</v>
+        <v>886</v>
       </c>
       <c r="B162" t="s">
-        <v>895</v>
+        <v>809</v>
       </c>
       <c r="C162" t="s">
-        <v>895</v>
+        <v>809</v>
       </c>
       <c r="D162" t="s">
         <v>20</v>
@@ -29230,7 +29230,7 @@
         <v>1</v>
       </c>
       <c r="X162" t="s">
-        <v>1078</v>
+        <v>992</v>
       </c>
       <c r="Y162" t="b">
         <v>0</v>
@@ -29241,10 +29241,10 @@
         <v>107</v>
       </c>
       <c r="B163" t="s">
-        <v>896</v>
+        <v>810</v>
       </c>
       <c r="C163" t="s">
-        <v>896</v>
+        <v>810</v>
       </c>
       <c r="D163" t="s">
         <v>20</v>
@@ -29315,13 +29315,13 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>973</v>
+        <v>887</v>
       </c>
       <c r="B164" t="s">
-        <v>897</v>
+        <v>811</v>
       </c>
       <c r="C164" t="s">
-        <v>897</v>
+        <v>811</v>
       </c>
       <c r="D164" t="s">
         <v>20</v>
@@ -29384,7 +29384,7 @@
         <v>1</v>
       </c>
       <c r="X164" t="s">
-        <v>1079</v>
+        <v>993</v>
       </c>
       <c r="Y164" t="b">
         <v>0</v>
@@ -29392,13 +29392,13 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>974</v>
+        <v>888</v>
       </c>
       <c r="B165" t="s">
-        <v>898</v>
+        <v>812</v>
       </c>
       <c r="C165" t="s">
-        <v>898</v>
+        <v>812</v>
       </c>
       <c r="D165" t="s">
         <v>20</v>
@@ -29461,7 +29461,7 @@
         <v>1</v>
       </c>
       <c r="X165" t="s">
-        <v>1080</v>
+        <v>994</v>
       </c>
       <c r="Y165" t="b">
         <v>0</v>
@@ -29469,13 +29469,13 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>975</v>
+        <v>889</v>
       </c>
       <c r="B166" t="s">
-        <v>899</v>
+        <v>813</v>
       </c>
       <c r="C166" t="s">
-        <v>899</v>
+        <v>813</v>
       </c>
       <c r="D166" t="s">
         <v>20</v>
@@ -29538,7 +29538,7 @@
         <v>1</v>
       </c>
       <c r="X166" t="s">
-        <v>1081</v>
+        <v>995</v>
       </c>
       <c r="Y166" t="b">
         <v>0</v>
@@ -29546,13 +29546,13 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>976</v>
+        <v>890</v>
       </c>
       <c r="B167" t="s">
-        <v>900</v>
+        <v>814</v>
       </c>
       <c r="C167" t="s">
-        <v>900</v>
+        <v>814</v>
       </c>
       <c r="D167" t="s">
         <v>20</v>
@@ -29615,7 +29615,7 @@
         <v>1</v>
       </c>
       <c r="X167" t="s">
-        <v>1082</v>
+        <v>996</v>
       </c>
       <c r="Y167" t="b">
         <v>0</v>
@@ -29623,13 +29623,13 @@
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>977</v>
+        <v>891</v>
       </c>
       <c r="B168" t="s">
-        <v>901</v>
+        <v>815</v>
       </c>
       <c r="C168" t="s">
-        <v>901</v>
+        <v>815</v>
       </c>
       <c r="D168" t="s">
         <v>20</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="X168" t="s">
-        <v>1084</v>
+        <v>998</v>
       </c>
       <c r="Y168" t="b">
         <v>0</v>
@@ -29700,13 +29700,13 @@
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>978</v>
+        <v>892</v>
       </c>
       <c r="B169" t="s">
-        <v>902</v>
+        <v>816</v>
       </c>
       <c r="C169" t="s">
-        <v>902</v>
+        <v>816</v>
       </c>
       <c r="D169" t="s">
         <v>20</v>
@@ -29769,7 +29769,7 @@
         <v>1</v>
       </c>
       <c r="X169" t="s">
-        <v>1083</v>
+        <v>997</v>
       </c>
       <c r="Y169" t="b">
         <v>0</v>
@@ -29777,13 +29777,13 @@
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>1109</v>
+        <v>1023</v>
       </c>
       <c r="B170" t="s">
-        <v>903</v>
+        <v>817</v>
       </c>
       <c r="C170" t="s">
-        <v>903</v>
+        <v>817</v>
       </c>
       <c r="D170" t="s">
         <v>20</v>
@@ -29846,7 +29846,7 @@
         <v>1</v>
       </c>
       <c r="X170" t="s">
-        <v>1085</v>
+        <v>999</v>
       </c>
       <c r="Y170" t="b">
         <v>1</v>
@@ -29854,13 +29854,13 @@
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>943</v>
+        <v>857</v>
       </c>
       <c r="B171" t="s">
-        <v>904</v>
+        <v>818</v>
       </c>
       <c r="C171" t="s">
-        <v>904</v>
+        <v>818</v>
       </c>
       <c r="D171" t="s">
         <v>20</v>
@@ -29923,7 +29923,7 @@
         <v>1</v>
       </c>
       <c r="X171" t="s">
-        <v>1086</v>
+        <v>1000</v>
       </c>
       <c r="Y171" t="b">
         <v>0</v>
@@ -29934,10 +29934,10 @@
         <v>59</v>
       </c>
       <c r="B172" t="s">
-        <v>905</v>
+        <v>819</v>
       </c>
       <c r="C172" t="s">
-        <v>905</v>
+        <v>819</v>
       </c>
       <c r="D172" t="s">
         <v>20</v>
@@ -30008,13 +30008,13 @@
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>1110</v>
+        <v>1024</v>
       </c>
       <c r="B173" t="s">
-        <v>906</v>
+        <v>820</v>
       </c>
       <c r="C173" t="s">
-        <v>906</v>
+        <v>820</v>
       </c>
       <c r="D173" t="s">
         <v>20</v>
@@ -30077,7 +30077,7 @@
         <v>1</v>
       </c>
       <c r="X173" t="s">
-        <v>1087</v>
+        <v>1001</v>
       </c>
       <c r="Y173" t="b">
         <v>0</v>
@@ -30085,13 +30085,13 @@
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>944</v>
+        <v>858</v>
       </c>
       <c r="B174" t="s">
-        <v>907</v>
+        <v>821</v>
       </c>
       <c r="C174" t="s">
-        <v>907</v>
+        <v>821</v>
       </c>
       <c r="D174" t="s">
         <v>20</v>
@@ -30154,7 +30154,7 @@
         <v>1</v>
       </c>
       <c r="X174" t="s">
-        <v>944</v>
+        <v>858</v>
       </c>
       <c r="Y174" t="b">
         <v>1</v>
@@ -30165,10 +30165,10 @@
         <v>60</v>
       </c>
       <c r="B175" t="s">
-        <v>908</v>
+        <v>822</v>
       </c>
       <c r="C175" t="s">
-        <v>908</v>
+        <v>822</v>
       </c>
       <c r="D175" t="s">
         <v>20</v>
@@ -30242,10 +30242,10 @@
         <v>347</v>
       </c>
       <c r="B176" t="s">
-        <v>913</v>
+        <v>827</v>
       </c>
       <c r="C176" t="s">
-        <v>913</v>
+        <v>827</v>
       </c>
       <c r="D176" t="s">
         <v>20</v>
@@ -30316,13 +30316,13 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>982</v>
+        <v>896</v>
       </c>
       <c r="B177" t="s">
-        <v>914</v>
+        <v>828</v>
       </c>
       <c r="C177" t="s">
-        <v>914</v>
+        <v>828</v>
       </c>
       <c r="D177" t="s">
         <v>20</v>
@@ -30396,10 +30396,10 @@
         <v>348</v>
       </c>
       <c r="B178" t="s">
-        <v>915</v>
+        <v>829</v>
       </c>
       <c r="C178" t="s">
-        <v>915</v>
+        <v>829</v>
       </c>
       <c r="D178" t="s">
         <v>20</v>
@@ -30473,10 +30473,10 @@
         <v>349</v>
       </c>
       <c r="B179" t="s">
-        <v>916</v>
+        <v>830</v>
       </c>
       <c r="C179" t="s">
-        <v>916</v>
+        <v>830</v>
       </c>
       <c r="D179" t="s">
         <v>20</v>
@@ -30550,10 +30550,10 @@
         <v>350</v>
       </c>
       <c r="B180" t="s">
-        <v>917</v>
+        <v>831</v>
       </c>
       <c r="C180" t="s">
-        <v>917</v>
+        <v>831</v>
       </c>
       <c r="D180" t="s">
         <v>20</v>
@@ -30627,10 +30627,10 @@
         <v>351</v>
       </c>
       <c r="B181" t="s">
-        <v>918</v>
+        <v>832</v>
       </c>
       <c r="C181" t="s">
-        <v>918</v>
+        <v>832</v>
       </c>
       <c r="D181" t="s">
         <v>20</v>
@@ -30701,13 +30701,13 @@
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>1093</v>
+        <v>1007</v>
       </c>
       <c r="B182" t="s">
-        <v>919</v>
+        <v>833</v>
       </c>
       <c r="C182" t="s">
-        <v>919</v>
+        <v>833</v>
       </c>
       <c r="D182" t="s">
         <v>20</v>
@@ -30770,7 +30770,7 @@
         <v>1</v>
       </c>
       <c r="X182" t="s">
-        <v>1092</v>
+        <v>1006</v>
       </c>
       <c r="Y182" t="b">
         <v>0</v>
@@ -30778,13 +30778,13 @@
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>945</v>
+        <v>859</v>
       </c>
       <c r="B183" t="s">
-        <v>909</v>
+        <v>823</v>
       </c>
       <c r="C183" t="s">
-        <v>909</v>
+        <v>823</v>
       </c>
       <c r="D183" t="s">
         <v>20</v>
@@ -30847,7 +30847,7 @@
         <v>1</v>
       </c>
       <c r="X183" t="s">
-        <v>1088</v>
+        <v>1002</v>
       </c>
       <c r="Y183" t="b">
         <v>0</v>
@@ -30855,13 +30855,13 @@
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>979</v>
+        <v>893</v>
       </c>
       <c r="B184" t="s">
-        <v>910</v>
+        <v>824</v>
       </c>
       <c r="C184" t="s">
-        <v>910</v>
+        <v>824</v>
       </c>
       <c r="D184" t="s">
         <v>20</v>
@@ -30924,7 +30924,7 @@
         <v>1</v>
       </c>
       <c r="X184" t="s">
-        <v>1089</v>
+        <v>1003</v>
       </c>
       <c r="Y184" t="b">
         <v>0</v>
@@ -30932,13 +30932,13 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>980</v>
+        <v>894</v>
       </c>
       <c r="B185" t="s">
-        <v>911</v>
+        <v>825</v>
       </c>
       <c r="C185" t="s">
-        <v>911</v>
+        <v>825</v>
       </c>
       <c r="D185" t="s">
         <v>20</v>
@@ -31001,7 +31001,7 @@
         <v>1</v>
       </c>
       <c r="X185" t="s">
-        <v>1090</v>
+        <v>1004</v>
       </c>
       <c r="Y185" t="b">
         <v>0</v>
@@ -31009,13 +31009,13 @@
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>981</v>
+        <v>895</v>
       </c>
       <c r="B186" t="s">
-        <v>912</v>
+        <v>826</v>
       </c>
       <c r="C186" t="s">
-        <v>912</v>
+        <v>826</v>
       </c>
       <c r="D186" t="s">
         <v>20</v>
@@ -31078,7 +31078,7 @@
         <v>1</v>
       </c>
       <c r="X186" t="s">
-        <v>1091</v>
+        <v>1005</v>
       </c>
       <c r="Y186" t="b">
         <v>0</v>
@@ -31086,13 +31086,13 @@
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>946</v>
+        <v>860</v>
       </c>
       <c r="B187" t="s">
-        <v>920</v>
+        <v>834</v>
       </c>
       <c r="C187" t="s">
-        <v>920</v>
+        <v>834</v>
       </c>
       <c r="D187" t="s">
         <v>20</v>
@@ -31163,13 +31163,13 @@
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>1094</v>
+        <v>1008</v>
       </c>
       <c r="B188" t="s">
-        <v>921</v>
+        <v>835</v>
       </c>
       <c r="C188" t="s">
-        <v>921</v>
+        <v>835</v>
       </c>
       <c r="D188" t="s">
         <v>20</v>
@@ -31232,7 +31232,7 @@
         <v>1</v>
       </c>
       <c r="X188" t="s">
-        <v>1094</v>
+        <v>1008</v>
       </c>
       <c r="Y188" t="b">
         <v>0</v>
@@ -31243,10 +31243,10 @@
         <v>496</v>
       </c>
       <c r="B189" t="s">
-        <v>922</v>
+        <v>836</v>
       </c>
       <c r="C189" t="s">
-        <v>922</v>
+        <v>836</v>
       </c>
       <c r="D189" t="s">
         <v>20</v>
@@ -31320,10 +31320,10 @@
         <v>42</v>
       </c>
       <c r="B190" t="s">
-        <v>1141</v>
+        <v>1055</v>
       </c>
       <c r="C190" t="s">
-        <v>1141</v>
+        <v>1055</v>
       </c>
       <c r="D190" t="s">
         <v>20</v>
@@ -31394,13 +31394,13 @@
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>947</v>
+        <v>861</v>
       </c>
       <c r="B191" t="s">
-        <v>923</v>
+        <v>837</v>
       </c>
       <c r="C191" t="s">
-        <v>923</v>
+        <v>837</v>
       </c>
       <c r="D191" t="s">
         <v>20</v>
@@ -31463,7 +31463,7 @@
         <v>1</v>
       </c>
       <c r="X191" t="s">
-        <v>1095</v>
+        <v>1009</v>
       </c>
       <c r="Y191" t="b">
         <v>0</v>
@@ -31471,13 +31471,13 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>669</v>
+        <v>583</v>
       </c>
       <c r="B192" t="s">
-        <v>751</v>
+        <v>665</v>
       </c>
       <c r="C192" t="s">
-        <v>587</v>
+        <v>1077</v>
       </c>
       <c r="D192" t="s">
         <v>20</v>
@@ -31540,7 +31540,7 @@
         <v>1</v>
       </c>
       <c r="X192" t="s">
-        <v>669</v>
+        <v>583</v>
       </c>
       <c r="Y192" t="b">
         <v>1</v>
@@ -31548,13 +31548,13 @@
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>983</v>
+        <v>897</v>
       </c>
       <c r="B193" t="s">
-        <v>924</v>
+        <v>838</v>
       </c>
       <c r="C193" t="s">
-        <v>924</v>
+        <v>838</v>
       </c>
       <c r="D193" t="s">
         <v>20</v>
@@ -31625,13 +31625,13 @@
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>984</v>
+        <v>898</v>
       </c>
       <c r="B194" t="s">
-        <v>925</v>
+        <v>839</v>
       </c>
       <c r="C194" t="s">
-        <v>925</v>
+        <v>839</v>
       </c>
       <c r="D194" t="s">
         <v>20</v>
@@ -31702,13 +31702,13 @@
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>985</v>
+        <v>899</v>
       </c>
       <c r="B195" t="s">
-        <v>926</v>
+        <v>840</v>
       </c>
       <c r="C195" t="s">
-        <v>926</v>
+        <v>840</v>
       </c>
       <c r="D195" t="s">
         <v>20</v>
@@ -31779,13 +31779,13 @@
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>986</v>
+        <v>900</v>
       </c>
       <c r="B196" t="s">
-        <v>927</v>
+        <v>841</v>
       </c>
       <c r="C196" t="s">
-        <v>927</v>
+        <v>841</v>
       </c>
       <c r="D196" t="s">
         <v>20</v>
@@ -31856,13 +31856,13 @@
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>987</v>
+        <v>901</v>
       </c>
       <c r="B197" t="s">
-        <v>928</v>
+        <v>842</v>
       </c>
       <c r="C197" t="s">
-        <v>928</v>
+        <v>842</v>
       </c>
       <c r="D197" t="s">
         <v>20</v>
@@ -31933,13 +31933,13 @@
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>988</v>
+        <v>902</v>
       </c>
       <c r="B198" t="s">
-        <v>929</v>
+        <v>843</v>
       </c>
       <c r="C198" t="s">
-        <v>929</v>
+        <v>843</v>
       </c>
       <c r="D198" t="s">
         <v>20</v>
@@ -32010,13 +32010,13 @@
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>989</v>
+        <v>903</v>
       </c>
       <c r="B199" t="s">
-        <v>930</v>
+        <v>844</v>
       </c>
       <c r="C199" t="s">
-        <v>930</v>
+        <v>844</v>
       </c>
       <c r="D199" t="s">
         <v>20</v>
@@ -32087,13 +32087,13 @@
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>990</v>
+        <v>904</v>
       </c>
       <c r="B200" t="s">
-        <v>931</v>
+        <v>845</v>
       </c>
       <c r="C200" t="s">
-        <v>931</v>
+        <v>845</v>
       </c>
       <c r="D200" t="s">
         <v>20</v>
@@ -32164,13 +32164,13 @@
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>991</v>
+        <v>905</v>
       </c>
       <c r="B201" t="s">
-        <v>932</v>
+        <v>846</v>
       </c>
       <c r="C201" t="s">
-        <v>932</v>
+        <v>846</v>
       </c>
       <c r="D201" t="s">
         <v>20</v>
@@ -32241,13 +32241,13 @@
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>992</v>
+        <v>906</v>
       </c>
       <c r="B202" t="s">
-        <v>933</v>
+        <v>847</v>
       </c>
       <c r="C202" t="s">
-        <v>933</v>
+        <v>847</v>
       </c>
       <c r="D202" t="s">
         <v>20</v>
@@ -32318,13 +32318,13 @@
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>993</v>
+        <v>907</v>
       </c>
       <c r="B203" t="s">
-        <v>934</v>
+        <v>848</v>
       </c>
       <c r="C203" t="s">
-        <v>934</v>
+        <v>848</v>
       </c>
       <c r="D203" t="s">
         <v>20</v>
@@ -32395,13 +32395,13 @@
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>994</v>
+        <v>908</v>
       </c>
       <c r="B204" t="s">
-        <v>935</v>
+        <v>849</v>
       </c>
       <c r="C204" t="s">
-        <v>935</v>
+        <v>849</v>
       </c>
       <c r="D204" t="s">
         <v>20</v>
@@ -32472,13 +32472,13 @@
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>995</v>
+        <v>909</v>
       </c>
       <c r="B205" t="s">
-        <v>936</v>
+        <v>850</v>
       </c>
       <c r="C205" t="s">
-        <v>936</v>
+        <v>850</v>
       </c>
       <c r="D205" t="s">
         <v>20</v>
@@ -32549,13 +32549,13 @@
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>996</v>
+        <v>910</v>
       </c>
       <c r="B206" t="s">
-        <v>937</v>
+        <v>851</v>
       </c>
       <c r="C206" t="s">
-        <v>937</v>
+        <v>851</v>
       </c>
       <c r="D206" t="s">
         <v>20</v>
@@ -32626,13 +32626,13 @@
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>997</v>
+        <v>911</v>
       </c>
       <c r="B207" t="s">
-        <v>938</v>
+        <v>852</v>
       </c>
       <c r="C207" t="s">
-        <v>938</v>
+        <v>852</v>
       </c>
       <c r="D207" t="s">
         <v>20</v>
@@ -32703,13 +32703,13 @@
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>998</v>
+        <v>912</v>
       </c>
       <c r="B208" t="s">
-        <v>939</v>
+        <v>853</v>
       </c>
       <c r="C208" t="s">
-        <v>939</v>
+        <v>853</v>
       </c>
       <c r="D208" t="s">
         <v>20</v>
@@ -32780,16 +32780,16 @@
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>672</v>
+        <v>586</v>
       </c>
       <c r="B209" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D209" t="s">
         <v>504</v>
-      </c>
-      <c r="C209" t="s">
-        <v>504</v>
-      </c>
-      <c r="D209" t="s">
-        <v>590</v>
       </c>
       <c r="E209" t="b">
         <v>1</v>
@@ -32849,7 +32849,7 @@
         <v>1</v>
       </c>
       <c r="X209" t="s">
-        <v>672</v>
+        <v>586</v>
       </c>
       <c r="Y209" t="b">
         <v>0</v>
@@ -32857,16 +32857,16 @@
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>673</v>
+        <v>587</v>
       </c>
       <c r="B210" t="s">
-        <v>505</v>
+        <v>1079</v>
       </c>
       <c r="C210" t="s">
-        <v>505</v>
+        <v>1079</v>
       </c>
       <c r="D210" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E210" t="b">
         <v>1</v>
@@ -32926,7 +32926,7 @@
         <v>1</v>
       </c>
       <c r="X210" t="s">
-        <v>675</v>
+        <v>589</v>
       </c>
       <c r="Y210" t="b">
         <v>0</v>
@@ -32934,16 +32934,16 @@
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>592</v>
+        <v>506</v>
       </c>
       <c r="B211" t="s">
-        <v>508</v>
+        <v>1080</v>
       </c>
       <c r="C211" t="s">
-        <v>508</v>
+        <v>1080</v>
       </c>
       <c r="D211" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E211" t="b">
         <v>1</v>
@@ -33003,7 +33003,7 @@
         <v>1</v>
       </c>
       <c r="X211" t="s">
-        <v>680</v>
+        <v>594</v>
       </c>
       <c r="Y211" t="b">
         <v>0</v>
@@ -33011,16 +33011,16 @@
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>593</v>
+        <v>507</v>
       </c>
       <c r="B212" t="s">
-        <v>509</v>
+        <v>1081</v>
       </c>
       <c r="C212" t="s">
-        <v>509</v>
+        <v>1081</v>
       </c>
       <c r="D212" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E212" t="b">
         <v>1</v>
@@ -33080,7 +33080,7 @@
         <v>1</v>
       </c>
       <c r="X212" t="s">
-        <v>681</v>
+        <v>595</v>
       </c>
       <c r="Y212" t="b">
         <v>0</v>
@@ -33088,16 +33088,16 @@
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>595</v>
+        <v>509</v>
       </c>
       <c r="B213" t="s">
-        <v>511</v>
+        <v>1082</v>
       </c>
       <c r="C213" t="s">
-        <v>511</v>
+        <v>1082</v>
       </c>
       <c r="D213" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E213" t="b">
         <v>1</v>
@@ -33157,7 +33157,7 @@
         <v>1</v>
       </c>
       <c r="X213" t="s">
-        <v>595</v>
+        <v>509</v>
       </c>
       <c r="Y213" t="b">
         <v>0</v>
@@ -33165,16 +33165,16 @@
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>596</v>
+        <v>510</v>
       </c>
       <c r="B214" t="s">
-        <v>512</v>
+        <v>1083</v>
       </c>
       <c r="C214" t="s">
-        <v>512</v>
+        <v>1083</v>
       </c>
       <c r="D214" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E214" t="b">
         <v>1</v>
@@ -33234,7 +33234,7 @@
         <v>1</v>
       </c>
       <c r="X214" t="s">
-        <v>596</v>
+        <v>510</v>
       </c>
       <c r="Y214" t="b">
         <v>0</v>
@@ -33242,16 +33242,16 @@
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="B215" t="s">
-        <v>513</v>
+        <v>1084</v>
       </c>
       <c r="C215" t="s">
-        <v>513</v>
+        <v>1084</v>
       </c>
       <c r="D215" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E215" t="b">
         <v>1</v>
@@ -33311,7 +33311,7 @@
         <v>1</v>
       </c>
       <c r="X215" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="Y215" t="b">
         <v>0</v>
@@ -33319,16 +33319,16 @@
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>598</v>
+        <v>512</v>
       </c>
       <c r="B216" t="s">
-        <v>515</v>
+        <v>1085</v>
       </c>
       <c r="C216" t="s">
-        <v>515</v>
+        <v>1085</v>
       </c>
       <c r="D216" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E216" t="b">
         <v>1</v>
@@ -33388,7 +33388,7 @@
         <v>1</v>
       </c>
       <c r="X216" t="s">
-        <v>598</v>
+        <v>512</v>
       </c>
       <c r="Y216" t="b">
         <v>0</v>
@@ -33396,16 +33396,16 @@
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>599</v>
+        <v>513</v>
       </c>
       <c r="B217" t="s">
-        <v>516</v>
+        <v>1086</v>
       </c>
       <c r="C217" t="s">
-        <v>516</v>
+        <v>1086</v>
       </c>
       <c r="D217" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E217" t="b">
         <v>1</v>
@@ -33465,7 +33465,7 @@
         <v>1</v>
       </c>
       <c r="X217" t="s">
-        <v>676</v>
+        <v>590</v>
       </c>
       <c r="Y217" t="b">
         <v>0</v>
@@ -33473,16 +33473,16 @@
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>603</v>
+        <v>517</v>
       </c>
       <c r="B218" t="s">
-        <v>520</v>
+        <v>1087</v>
       </c>
       <c r="C218" t="s">
-        <v>520</v>
+        <v>1087</v>
       </c>
       <c r="D218" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E218" t="b">
         <v>1</v>
@@ -33542,7 +33542,7 @@
         <v>1</v>
       </c>
       <c r="X218" t="s">
-        <v>678</v>
+        <v>592</v>
       </c>
       <c r="Y218" t="b">
         <v>0</v>
@@ -33550,16 +33550,16 @@
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="B219" t="s">
-        <v>523</v>
+        <v>1088</v>
       </c>
       <c r="C219" t="s">
-        <v>523</v>
+        <v>1088</v>
       </c>
       <c r="D219" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E219" t="b">
         <v>1</v>
@@ -33619,7 +33619,7 @@
         <v>1</v>
       </c>
       <c r="X219" t="s">
-        <v>684</v>
+        <v>598</v>
       </c>
       <c r="Y219" t="b">
         <v>0</v>
@@ -33627,16 +33627,16 @@
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>607</v>
+        <v>521</v>
       </c>
       <c r="B220" t="s">
-        <v>524</v>
+        <v>1089</v>
       </c>
       <c r="C220" t="s">
-        <v>524</v>
+        <v>1089</v>
       </c>
       <c r="D220" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E220" t="b">
         <v>1</v>
@@ -33696,7 +33696,7 @@
         <v>1</v>
       </c>
       <c r="X220" t="s">
-        <v>607</v>
+        <v>521</v>
       </c>
       <c r="Y220" t="b">
         <v>0</v>
@@ -33704,16 +33704,16 @@
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>608</v>
+        <v>522</v>
       </c>
       <c r="B221" t="s">
-        <v>525</v>
+        <v>1090</v>
       </c>
       <c r="C221" t="s">
-        <v>525</v>
+        <v>1090</v>
       </c>
       <c r="D221" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E221" t="b">
         <v>1</v>
@@ -33773,7 +33773,7 @@
         <v>1</v>
       </c>
       <c r="X221" t="s">
-        <v>1097</v>
+        <v>1011</v>
       </c>
       <c r="Y221" t="b">
         <v>0</v>
@@ -33781,16 +33781,16 @@
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>609</v>
+        <v>523</v>
       </c>
       <c r="B222" t="s">
-        <v>526</v>
+        <v>1091</v>
       </c>
       <c r="C222" t="s">
-        <v>526</v>
+        <v>1091</v>
       </c>
       <c r="D222" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E222" t="b">
         <v>1</v>
@@ -33850,7 +33850,7 @@
         <v>1</v>
       </c>
       <c r="X222" t="s">
-        <v>609</v>
+        <v>523</v>
       </c>
       <c r="Y222" t="b">
         <v>0</v>
@@ -33858,16 +33858,16 @@
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="B223" t="s">
-        <v>536</v>
+        <v>1092</v>
       </c>
       <c r="C223" t="s">
-        <v>536</v>
+        <v>1092</v>
       </c>
       <c r="D223" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E223" t="b">
         <v>1</v>
@@ -33927,7 +33927,7 @@
         <v>1</v>
       </c>
       <c r="X223" t="s">
-        <v>694</v>
+        <v>608</v>
       </c>
       <c r="Y223" t="b">
         <v>0</v>
@@ -33935,16 +33935,16 @@
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>620</v>
+        <v>534</v>
       </c>
       <c r="B224" t="s">
-        <v>537</v>
+        <v>1093</v>
       </c>
       <c r="C224" t="s">
-        <v>537</v>
+        <v>1093</v>
       </c>
       <c r="D224" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E224" t="b">
         <v>1</v>
@@ -34004,7 +34004,7 @@
         <v>1</v>
       </c>
       <c r="X224" t="s">
-        <v>1051</v>
+        <v>965</v>
       </c>
       <c r="Y224" t="b">
         <v>0</v>
@@ -34012,16 +34012,16 @@
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>622</v>
+        <v>536</v>
       </c>
       <c r="B225" t="s">
-        <v>539</v>
+        <v>1094</v>
       </c>
       <c r="C225" t="s">
-        <v>539</v>
+        <v>1094</v>
       </c>
       <c r="D225" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E225" t="b">
         <v>1</v>
@@ -34081,7 +34081,7 @@
         <v>1</v>
       </c>
       <c r="X225" t="s">
-        <v>696</v>
+        <v>610</v>
       </c>
       <c r="Y225" t="b">
         <v>0</v>
@@ -34089,16 +34089,16 @@
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>624</v>
+        <v>538</v>
       </c>
       <c r="B226" t="s">
-        <v>541</v>
+        <v>1095</v>
       </c>
       <c r="C226" t="s">
-        <v>541</v>
+        <v>1095</v>
       </c>
       <c r="D226" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E226" t="b">
         <v>1</v>
@@ -34158,7 +34158,7 @@
         <v>1</v>
       </c>
       <c r="X226" t="s">
-        <v>698</v>
+        <v>612</v>
       </c>
       <c r="Y226" t="b">
         <v>0</v>
@@ -34166,16 +34166,16 @@
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>623</v>
+        <v>537</v>
       </c>
       <c r="B227" t="s">
-        <v>540</v>
+        <v>1096</v>
       </c>
       <c r="C227" t="s">
-        <v>540</v>
+        <v>1096</v>
       </c>
       <c r="D227" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E227" t="b">
         <v>1</v>
@@ -34235,7 +34235,7 @@
         <v>1</v>
       </c>
       <c r="X227" t="s">
-        <v>697</v>
+        <v>611</v>
       </c>
       <c r="Y227" t="b">
         <v>0</v>
@@ -34243,16 +34243,16 @@
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>625</v>
+        <v>539</v>
       </c>
       <c r="B228" t="s">
-        <v>542</v>
+        <v>1097</v>
       </c>
       <c r="C228" t="s">
-        <v>542</v>
+        <v>1097</v>
       </c>
       <c r="D228" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E228" t="b">
         <v>1</v>
@@ -34312,7 +34312,7 @@
         <v>1</v>
       </c>
       <c r="X228" t="s">
-        <v>699</v>
+        <v>613</v>
       </c>
       <c r="Y228" t="b">
         <v>0</v>
@@ -34320,16 +34320,16 @@
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>626</v>
+        <v>540</v>
       </c>
       <c r="B229" t="s">
-        <v>543</v>
+        <v>1098</v>
       </c>
       <c r="C229" t="s">
-        <v>543</v>
+        <v>1098</v>
       </c>
       <c r="D229" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E229" t="b">
         <v>1</v>
@@ -34389,7 +34389,7 @@
         <v>1</v>
       </c>
       <c r="X229" t="s">
-        <v>700</v>
+        <v>614</v>
       </c>
       <c r="Y229" t="b">
         <v>0</v>
@@ -34397,16 +34397,16 @@
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>627</v>
+        <v>541</v>
       </c>
       <c r="B230" t="s">
-        <v>544</v>
+        <v>1099</v>
       </c>
       <c r="C230" t="s">
-        <v>544</v>
+        <v>1099</v>
       </c>
       <c r="D230" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E230" t="b">
         <v>1</v>
@@ -34466,7 +34466,7 @@
         <v>1</v>
       </c>
       <c r="X230" t="s">
-        <v>701</v>
+        <v>615</v>
       </c>
       <c r="Y230" t="b">
         <v>0</v>
@@ -34474,16 +34474,16 @@
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>628</v>
+        <v>542</v>
       </c>
       <c r="B231" t="s">
-        <v>545</v>
+        <v>1100</v>
       </c>
       <c r="C231" t="s">
-        <v>545</v>
+        <v>1100</v>
       </c>
       <c r="D231" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E231" t="b">
         <v>1</v>
@@ -34543,7 +34543,7 @@
         <v>1</v>
       </c>
       <c r="X231" t="s">
-        <v>702</v>
+        <v>616</v>
       </c>
       <c r="Y231" t="b">
         <v>0</v>
@@ -34551,16 +34551,16 @@
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>629</v>
+        <v>543</v>
       </c>
       <c r="B232" t="s">
-        <v>546</v>
+        <v>1101</v>
       </c>
       <c r="C232" t="s">
-        <v>546</v>
+        <v>1101</v>
       </c>
       <c r="D232" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E232" t="b">
         <v>1</v>
@@ -34620,7 +34620,7 @@
         <v>1</v>
       </c>
       <c r="X232" t="s">
-        <v>703</v>
+        <v>617</v>
       </c>
       <c r="Y232" t="b">
         <v>0</v>
@@ -34628,16 +34628,16 @@
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>630</v>
+        <v>544</v>
       </c>
       <c r="B233" t="s">
-        <v>547</v>
+        <v>1102</v>
       </c>
       <c r="C233" t="s">
-        <v>547</v>
+        <v>1102</v>
       </c>
       <c r="D233" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E233" t="b">
         <v>1</v>
@@ -34697,7 +34697,7 @@
         <v>1</v>
       </c>
       <c r="X233" t="s">
-        <v>704</v>
+        <v>618</v>
       </c>
       <c r="Y233" t="b">
         <v>0</v>
@@ -34705,16 +34705,16 @@
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>631</v>
+        <v>545</v>
       </c>
       <c r="B234" t="s">
-        <v>548</v>
+        <v>1103</v>
       </c>
       <c r="C234" t="s">
-        <v>548</v>
+        <v>1103</v>
       </c>
       <c r="D234" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E234" t="b">
         <v>1</v>
@@ -34774,7 +34774,7 @@
         <v>1</v>
       </c>
       <c r="X234" t="s">
-        <v>705</v>
+        <v>619</v>
       </c>
       <c r="Y234" t="b">
         <v>0</v>
@@ -34782,16 +34782,16 @@
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>632</v>
+        <v>546</v>
       </c>
       <c r="B235" t="s">
-        <v>549</v>
+        <v>1104</v>
       </c>
       <c r="C235" t="s">
-        <v>549</v>
+        <v>1104</v>
       </c>
       <c r="D235" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E235" t="b">
         <v>1</v>
@@ -34851,7 +34851,7 @@
         <v>1</v>
       </c>
       <c r="X235" t="s">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="Y235" t="b">
         <v>0</v>
@@ -34859,16 +34859,16 @@
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>633</v>
+        <v>547</v>
       </c>
       <c r="B236" t="s">
-        <v>550</v>
+        <v>1105</v>
       </c>
       <c r="C236" t="s">
-        <v>550</v>
+        <v>1105</v>
       </c>
       <c r="D236" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E236" t="b">
         <v>1</v>
@@ -34928,7 +34928,7 @@
         <v>1</v>
       </c>
       <c r="X236" t="s">
-        <v>707</v>
+        <v>621</v>
       </c>
       <c r="Y236" t="b">
         <v>0</v>
@@ -34936,16 +34936,16 @@
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>634</v>
+        <v>548</v>
       </c>
       <c r="B237" t="s">
-        <v>551</v>
+        <v>1106</v>
       </c>
       <c r="C237" t="s">
-        <v>551</v>
+        <v>1106</v>
       </c>
       <c r="D237" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E237" t="b">
         <v>1</v>
@@ -35005,7 +35005,7 @@
         <v>1</v>
       </c>
       <c r="X237" t="s">
-        <v>708</v>
+        <v>622</v>
       </c>
       <c r="Y237" t="b">
         <v>0</v>
@@ -35013,16 +35013,16 @@
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>636</v>
+        <v>550</v>
       </c>
       <c r="B238" t="s">
-        <v>553</v>
+        <v>1107</v>
       </c>
       <c r="C238" t="s">
-        <v>553</v>
+        <v>1107</v>
       </c>
       <c r="D238" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E238" t="b">
         <v>1</v>
@@ -35082,7 +35082,7 @@
         <v>1</v>
       </c>
       <c r="X238" t="s">
-        <v>636</v>
+        <v>550</v>
       </c>
       <c r="Y238" t="b">
         <v>0</v>
@@ -35090,16 +35090,16 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>639</v>
+        <v>553</v>
       </c>
       <c r="B239" t="s">
-        <v>556</v>
+        <v>1108</v>
       </c>
       <c r="C239" t="s">
-        <v>556</v>
+        <v>1108</v>
       </c>
       <c r="D239" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E239" t="b">
         <v>1</v>
@@ -35159,7 +35159,7 @@
         <v>1</v>
       </c>
       <c r="X239" t="s">
-        <v>639</v>
+        <v>553</v>
       </c>
       <c r="Y239" t="b">
         <v>0</v>
@@ -35167,16 +35167,16 @@
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>641</v>
+        <v>555</v>
       </c>
       <c r="B240" t="s">
-        <v>558</v>
+        <v>1109</v>
       </c>
       <c r="C240" t="s">
-        <v>558</v>
+        <v>1109</v>
       </c>
       <c r="D240" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E240" t="b">
         <v>1</v>
@@ -35236,7 +35236,7 @@
         <v>1</v>
       </c>
       <c r="X240" t="s">
-        <v>712</v>
+        <v>626</v>
       </c>
       <c r="Y240" t="b">
         <v>0</v>
@@ -35244,16 +35244,16 @@
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>642</v>
+        <v>556</v>
       </c>
       <c r="B241" t="s">
-        <v>559</v>
+        <v>1110</v>
       </c>
       <c r="C241" t="s">
-        <v>559</v>
+        <v>1110</v>
       </c>
       <c r="D241" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E241" t="b">
         <v>1</v>
@@ -35313,7 +35313,7 @@
         <v>1</v>
       </c>
       <c r="X241" t="s">
-        <v>713</v>
+        <v>627</v>
       </c>
       <c r="Y241" t="b">
         <v>0</v>
@@ -35321,16 +35321,16 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="B242" t="s">
-        <v>560</v>
+        <v>1111</v>
       </c>
       <c r="C242" t="s">
-        <v>560</v>
+        <v>1111</v>
       </c>
       <c r="D242" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E242" t="b">
         <v>1</v>
@@ -35390,7 +35390,7 @@
         <v>1</v>
       </c>
       <c r="X242" t="s">
-        <v>714</v>
+        <v>628</v>
       </c>
       <c r="Y242" t="b">
         <v>0</v>
@@ -35398,16 +35398,16 @@
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>646</v>
+        <v>560</v>
       </c>
       <c r="B243" t="s">
-        <v>563</v>
+        <v>1112</v>
       </c>
       <c r="C243" t="s">
-        <v>563</v>
+        <v>1112</v>
       </c>
       <c r="D243" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E243" t="b">
         <v>1</v>
@@ -35467,7 +35467,7 @@
         <v>1</v>
       </c>
       <c r="X243" t="s">
-        <v>646</v>
+        <v>560</v>
       </c>
       <c r="Y243" t="b">
         <v>0</v>
@@ -35475,16 +35475,16 @@
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>647</v>
+        <v>561</v>
       </c>
       <c r="B244" t="s">
-        <v>564</v>
+        <v>1113</v>
       </c>
       <c r="C244" t="s">
-        <v>564</v>
+        <v>1113</v>
       </c>
       <c r="D244" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E244" t="b">
         <v>1</v>
@@ -35544,7 +35544,7 @@
         <v>1</v>
       </c>
       <c r="X244" t="s">
-        <v>717</v>
+        <v>631</v>
       </c>
       <c r="Y244" t="b">
         <v>0</v>
@@ -35552,16 +35552,16 @@
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>650</v>
+        <v>564</v>
       </c>
       <c r="B245" t="s">
-        <v>567</v>
+        <v>1114</v>
       </c>
       <c r="C245" t="s">
-        <v>567</v>
+        <v>1114</v>
       </c>
       <c r="D245" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E245" t="b">
         <v>1</v>
@@ -35621,7 +35621,7 @@
         <v>1</v>
       </c>
       <c r="X245" t="s">
-        <v>720</v>
+        <v>634</v>
       </c>
       <c r="Y245" t="b">
         <v>0</v>
@@ -35629,16 +35629,16 @@
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>651</v>
+        <v>565</v>
       </c>
       <c r="B246" t="s">
-        <v>568</v>
+        <v>1115</v>
       </c>
       <c r="C246" t="s">
-        <v>568</v>
+        <v>1115</v>
       </c>
       <c r="D246" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E246" t="b">
         <v>1</v>
@@ -35698,7 +35698,7 @@
         <v>1</v>
       </c>
       <c r="X246" t="s">
-        <v>651</v>
+        <v>565</v>
       </c>
       <c r="Y246" t="b">
         <v>0</v>
@@ -35706,16 +35706,16 @@
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>653</v>
+        <v>567</v>
       </c>
       <c r="B247" t="s">
-        <v>570</v>
+        <v>1116</v>
       </c>
       <c r="C247" t="s">
-        <v>570</v>
+        <v>1116</v>
       </c>
       <c r="D247" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E247" t="b">
         <v>1</v>
@@ -35775,7 +35775,7 @@
         <v>1</v>
       </c>
       <c r="X247" t="s">
-        <v>721</v>
+        <v>635</v>
       </c>
       <c r="Y247" t="b">
         <v>0</v>
@@ -35783,16 +35783,16 @@
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>655</v>
+        <v>569</v>
       </c>
       <c r="B248" t="s">
-        <v>573</v>
+        <v>1117</v>
       </c>
       <c r="C248" t="s">
-        <v>573</v>
+        <v>1117</v>
       </c>
       <c r="D248" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E248" t="b">
         <v>1</v>
@@ -35852,7 +35852,7 @@
         <v>1</v>
       </c>
       <c r="X248" t="s">
-        <v>655</v>
+        <v>569</v>
       </c>
       <c r="Y248" t="b">
         <v>0</v>
@@ -35860,16 +35860,16 @@
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>657</v>
+        <v>571</v>
       </c>
       <c r="B249" t="s">
-        <v>575</v>
+        <v>1118</v>
       </c>
       <c r="C249" t="s">
-        <v>575</v>
+        <v>1118</v>
       </c>
       <c r="D249" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E249" t="b">
         <v>1</v>
@@ -35929,7 +35929,7 @@
         <v>1</v>
       </c>
       <c r="X249" t="s">
-        <v>723</v>
+        <v>637</v>
       </c>
       <c r="Y249" t="b">
         <v>0</v>
@@ -35937,16 +35937,16 @@
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>658</v>
+        <v>572</v>
       </c>
       <c r="B250" t="s">
-        <v>576</v>
+        <v>1119</v>
       </c>
       <c r="C250" t="s">
-        <v>576</v>
+        <v>1119</v>
       </c>
       <c r="D250" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E250" t="b">
         <v>1</v>
@@ -36006,7 +36006,7 @@
         <v>1</v>
       </c>
       <c r="X250" t="s">
-        <v>724</v>
+        <v>638</v>
       </c>
       <c r="Y250" t="b">
         <v>0</v>
@@ -36014,16 +36014,16 @@
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>659</v>
+        <v>573</v>
       </c>
       <c r="B251" t="s">
-        <v>577</v>
+        <v>1120</v>
       </c>
       <c r="C251" t="s">
-        <v>577</v>
+        <v>1120</v>
       </c>
       <c r="D251" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E251" t="b">
         <v>1</v>
@@ -36083,7 +36083,7 @@
         <v>1</v>
       </c>
       <c r="X251" t="s">
-        <v>659</v>
+        <v>573</v>
       </c>
       <c r="Y251" t="b">
         <v>0</v>
@@ -36091,16 +36091,16 @@
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>660</v>
+        <v>574</v>
       </c>
       <c r="B252" t="s">
-        <v>578</v>
+        <v>1121</v>
       </c>
       <c r="C252" t="s">
-        <v>578</v>
+        <v>1121</v>
       </c>
       <c r="D252" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E252" t="b">
         <v>1</v>
@@ -36160,7 +36160,7 @@
         <v>1</v>
       </c>
       <c r="X252" t="s">
-        <v>725</v>
+        <v>639</v>
       </c>
       <c r="Y252" t="b">
         <v>0</v>
@@ -36168,16 +36168,16 @@
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>662</v>
+        <v>576</v>
       </c>
       <c r="B253" t="s">
-        <v>580</v>
+        <v>1122</v>
       </c>
       <c r="C253" t="s">
-        <v>580</v>
+        <v>1122</v>
       </c>
       <c r="D253" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E253" t="b">
         <v>1</v>
@@ -36237,7 +36237,7 @@
         <v>1</v>
       </c>
       <c r="X253" t="s">
-        <v>662</v>
+        <v>576</v>
       </c>
       <c r="Y253" t="b">
         <v>0</v>
@@ -36245,16 +36245,16 @@
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>665</v>
+        <v>579</v>
       </c>
       <c r="B254" t="s">
-        <v>583</v>
+        <v>1123</v>
       </c>
       <c r="C254" t="s">
-        <v>583</v>
+        <v>1123</v>
       </c>
       <c r="D254" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E254" t="b">
         <v>1</v>
@@ -36314,7 +36314,7 @@
         <v>1</v>
       </c>
       <c r="X254" t="s">
-        <v>665</v>
+        <v>579</v>
       </c>
       <c r="Y254" t="b">
         <v>0</v>
@@ -36322,16 +36322,16 @@
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>668</v>
+        <v>582</v>
       </c>
       <c r="B255" t="s">
-        <v>586</v>
+        <v>1124</v>
       </c>
       <c r="C255" t="s">
-        <v>586</v>
+        <v>1124</v>
       </c>
       <c r="D255" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="E255" t="b">
         <v>1</v>
@@ -36391,7 +36391,7 @@
         <v>1</v>
       </c>
       <c r="X255" t="s">
-        <v>668</v>
+        <v>582</v>
       </c>
       <c r="Y255" t="b">
         <v>0</v>
@@ -36399,16 +36399,16 @@
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>594</v>
+        <v>508</v>
       </c>
       <c r="B256" t="s">
-        <v>510</v>
+        <v>1125</v>
       </c>
       <c r="C256" t="s">
-        <v>510</v>
+        <v>1125</v>
       </c>
       <c r="D256" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E256" t="b">
         <v>1</v>
@@ -36468,7 +36468,7 @@
         <v>1</v>
       </c>
       <c r="X256" t="s">
-        <v>682</v>
+        <v>596</v>
       </c>
       <c r="Y256" t="b">
         <v>1</v>
@@ -36476,16 +36476,16 @@
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>1096</v>
+        <v>1010</v>
       </c>
       <c r="B257" t="s">
-        <v>514</v>
+        <v>1126</v>
       </c>
       <c r="C257" t="s">
-        <v>514</v>
+        <v>1126</v>
       </c>
       <c r="D257" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E257" t="b">
         <v>1</v>
@@ -36553,16 +36553,16 @@
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>610</v>
+        <v>524</v>
       </c>
       <c r="B258" t="s">
-        <v>527</v>
+        <v>1127</v>
       </c>
       <c r="C258" t="s">
-        <v>527</v>
+        <v>1127</v>
       </c>
       <c r="D258" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E258" t="b">
         <v>1</v>
@@ -36622,7 +36622,7 @@
         <v>1</v>
       </c>
       <c r="X258" t="s">
-        <v>685</v>
+        <v>599</v>
       </c>
       <c r="Y258" t="b">
         <v>1</v>
@@ -36630,16 +36630,16 @@
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>611</v>
+        <v>525</v>
       </c>
       <c r="B259" t="s">
-        <v>528</v>
+        <v>1128</v>
       </c>
       <c r="C259" t="s">
-        <v>528</v>
+        <v>1128</v>
       </c>
       <c r="D259" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E259" t="b">
         <v>1</v>
@@ -36699,7 +36699,7 @@
         <v>1</v>
       </c>
       <c r="X259" t="s">
-        <v>686</v>
+        <v>600</v>
       </c>
       <c r="Y259" t="b">
         <v>1</v>
@@ -36707,16 +36707,16 @@
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>635</v>
+        <v>549</v>
       </c>
       <c r="B260" t="s">
-        <v>552</v>
+        <v>1129</v>
       </c>
       <c r="C260" t="s">
-        <v>552</v>
+        <v>1129</v>
       </c>
       <c r="D260" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E260" t="b">
         <v>1</v>
@@ -36776,7 +36776,7 @@
         <v>1</v>
       </c>
       <c r="X260" t="s">
-        <v>635</v>
+        <v>549</v>
       </c>
       <c r="Y260" t="b">
         <v>1</v>
@@ -36784,16 +36784,16 @@
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>637</v>
+        <v>551</v>
       </c>
       <c r="B261" t="s">
-        <v>554</v>
+        <v>1130</v>
       </c>
       <c r="C261" t="s">
-        <v>554</v>
+        <v>1130</v>
       </c>
       <c r="D261" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E261" t="b">
         <v>1</v>
@@ -36853,7 +36853,7 @@
         <v>1</v>
       </c>
       <c r="X261" t="s">
-        <v>709</v>
+        <v>623</v>
       </c>
       <c r="Y261" t="b">
         <v>1</v>
@@ -36861,16 +36861,16 @@
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>638</v>
+        <v>552</v>
       </c>
       <c r="B262" t="s">
-        <v>555</v>
+        <v>1131</v>
       </c>
       <c r="C262" t="s">
-        <v>555</v>
+        <v>1131</v>
       </c>
       <c r="D262" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E262" t="b">
         <v>1</v>
@@ -36930,7 +36930,7 @@
         <v>1</v>
       </c>
       <c r="X262" t="s">
-        <v>710</v>
+        <v>624</v>
       </c>
       <c r="Y262" t="b">
         <v>1</v>
@@ -36938,16 +36938,16 @@
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>644</v>
+        <v>558</v>
       </c>
       <c r="B263" t="s">
-        <v>561</v>
+        <v>1132</v>
       </c>
       <c r="C263" t="s">
-        <v>561</v>
+        <v>1132</v>
       </c>
       <c r="D263" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E263" t="b">
         <v>1</v>
@@ -37007,7 +37007,7 @@
         <v>1</v>
       </c>
       <c r="X263" t="s">
-        <v>715</v>
+        <v>629</v>
       </c>
       <c r="Y263" t="b">
         <v>1</v>
@@ -37015,16 +37015,16 @@
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>645</v>
+        <v>559</v>
       </c>
       <c r="B264" t="s">
-        <v>562</v>
+        <v>1133</v>
       </c>
       <c r="C264" t="s">
-        <v>562</v>
+        <v>1133</v>
       </c>
       <c r="D264" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E264" t="b">
         <v>1</v>
@@ -37084,7 +37084,7 @@
         <v>1</v>
       </c>
       <c r="X264" t="s">
-        <v>716</v>
+        <v>630</v>
       </c>
       <c r="Y264" t="b">
         <v>1</v>
@@ -37092,16 +37092,16 @@
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>648</v>
+        <v>562</v>
       </c>
       <c r="B265" t="s">
-        <v>565</v>
+        <v>1134</v>
       </c>
       <c r="C265" t="s">
-        <v>565</v>
+        <v>1134</v>
       </c>
       <c r="D265" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E265" t="b">
         <v>1</v>
@@ -37161,7 +37161,7 @@
         <v>1</v>
       </c>
       <c r="X265" t="s">
-        <v>718</v>
+        <v>632</v>
       </c>
       <c r="Y265" t="b">
         <v>1</v>
@@ -37169,16 +37169,16 @@
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>649</v>
+        <v>563</v>
       </c>
       <c r="B266" t="s">
-        <v>566</v>
+        <v>1135</v>
       </c>
       <c r="C266" t="s">
-        <v>566</v>
+        <v>1135</v>
       </c>
       <c r="D266" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E266" t="b">
         <v>1</v>
@@ -37238,7 +37238,7 @@
         <v>1</v>
       </c>
       <c r="X266" t="s">
-        <v>719</v>
+        <v>633</v>
       </c>
       <c r="Y266" t="b">
         <v>1</v>
@@ -37249,13 +37249,13 @@
         <v>73</v>
       </c>
       <c r="B267" t="s">
-        <v>571</v>
+        <v>1136</v>
       </c>
       <c r="C267" t="s">
-        <v>571</v>
+        <v>1136</v>
       </c>
       <c r="D267" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E267" t="b">
         <v>1</v>
@@ -37323,16 +37323,16 @@
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>663</v>
+        <v>577</v>
       </c>
       <c r="B268" t="s">
-        <v>581</v>
+        <v>1137</v>
       </c>
       <c r="C268" t="s">
-        <v>581</v>
+        <v>1137</v>
       </c>
       <c r="D268" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E268" t="b">
         <v>1</v>
@@ -37392,7 +37392,7 @@
         <v>1</v>
       </c>
       <c r="X268" t="s">
-        <v>727</v>
+        <v>641</v>
       </c>
       <c r="Y268" t="b">
         <v>1</v>
@@ -37400,16 +37400,16 @@
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>664</v>
+        <v>578</v>
       </c>
       <c r="B269" t="s">
-        <v>582</v>
+        <v>1138</v>
       </c>
       <c r="C269" t="s">
-        <v>582</v>
+        <v>1138</v>
       </c>
       <c r="D269" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E269" t="b">
         <v>1</v>
@@ -37469,7 +37469,7 @@
         <v>1</v>
       </c>
       <c r="X269" t="s">
-        <v>728</v>
+        <v>642</v>
       </c>
       <c r="Y269" t="b">
         <v>1</v>
@@ -37477,16 +37477,16 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>666</v>
+        <v>580</v>
       </c>
       <c r="B270" t="s">
-        <v>584</v>
+        <v>1139</v>
       </c>
       <c r="C270" t="s">
-        <v>584</v>
+        <v>1139</v>
       </c>
       <c r="D270" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E270" t="b">
         <v>1</v>
@@ -37546,7 +37546,7 @@
         <v>1</v>
       </c>
       <c r="X270" t="s">
-        <v>729</v>
+        <v>643</v>
       </c>
       <c r="Y270" t="b">
         <v>1</v>
@@ -37554,16 +37554,16 @@
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>667</v>
+        <v>581</v>
       </c>
       <c r="B271" t="s">
-        <v>585</v>
+        <v>1140</v>
       </c>
       <c r="C271" t="s">
-        <v>585</v>
+        <v>1140</v>
       </c>
       <c r="D271" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E271" t="b">
         <v>1</v>
@@ -37623,7 +37623,7 @@
         <v>1</v>
       </c>
       <c r="X271" t="s">
-        <v>730</v>
+        <v>644</v>
       </c>
       <c r="Y271" t="b">
         <v>1</v>
@@ -37631,16 +37631,16 @@
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>670</v>
+        <v>584</v>
       </c>
       <c r="B272" t="s">
-        <v>588</v>
+        <v>1141</v>
       </c>
       <c r="C272" t="s">
-        <v>588</v>
+        <v>1141</v>
       </c>
       <c r="D272" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E272" t="b">
         <v>1</v>
@@ -37700,7 +37700,7 @@
         <v>1</v>
       </c>
       <c r="X272" t="s">
-        <v>731</v>
+        <v>645</v>
       </c>
       <c r="Y272" t="b">
         <v>1</v>
@@ -37708,16 +37708,16 @@
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>671</v>
+        <v>585</v>
       </c>
       <c r="B273" t="s">
-        <v>589</v>
+        <v>1142</v>
       </c>
       <c r="C273" t="s">
-        <v>589</v>
+        <v>1142</v>
       </c>
       <c r="D273" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="E273" t="b">
         <v>1</v>
@@ -37777,7 +37777,7 @@
         <v>1</v>
       </c>
       <c r="X273" t="s">
-        <v>732</v>
+        <v>646</v>
       </c>
       <c r="Y273" t="b">
         <v>1</v>
